--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_167a\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1801FE5C-4EA2-4BC0-ACBD-93CEAD751DE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E366E1-D21C-4EB3-A64C-81E2318CCC6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="False" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Misleading" sheetId="2" r:id="rId3"/>
+    <sheet name="ak" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Misleading" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="251">
   <si>
     <t>DATE</t>
   </si>
@@ -917,7 +918,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -986,6 +987,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1303,13 +1305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
       <selection activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -1324,7 +1326,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="243" customHeight="1">
+    <row r="2" spans="1:13" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43664</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="197.25" customHeight="1">
+    <row r="3" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43663</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.5">
+    <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43662</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="120">
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43661</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="150">
+    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43661</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="225">
+    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43665</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="390">
+    <row r="8" spans="1:13" ht="390" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43665</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="315">
+    <row r="9" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43664</v>
       </c>
@@ -1585,7 +1587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.5">
+    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43664</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="409.5">
+    <row r="11" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43664</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="360">
+    <row r="12" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43661</v>
       </c>
@@ -1673,7 +1675,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="409.5">
+    <row r="13" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43661</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="409.5">
+    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43661</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="330">
+    <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43664</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="195">
+    <row r="16" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43663</v>
       </c>
@@ -1796,7 +1798,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="195">
+    <row r="17" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43663</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="225">
+    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43663</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="165">
+    <row r="19" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43663</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="255">
+    <row r="20" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43663</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="379.5" customHeight="1">
+    <row r="21" spans="1:13" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43663</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.5">
+    <row r="22" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43663</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="330">
+    <row r="23" spans="1:13" ht="330" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43663</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="345">
+    <row r="24" spans="1:13" ht="345" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43663</v>
       </c>
@@ -2082,7 +2084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="315">
+    <row r="25" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43663</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="285">
+    <row r="26" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43663</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="210">
+    <row r="27" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43663</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="180">
+    <row r="28" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43663</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="240">
+    <row r="29" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>43663</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="315">
+    <row r="30" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43663</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270">
+    <row r="31" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43663</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="135">
+    <row r="32" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43663</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="315">
+    <row r="33" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43663</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="180">
+    <row r="34" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43663</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="285">
+    <row r="35" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43663</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="270">
+    <row r="36" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43663</v>
       </c>
@@ -2502,7 +2504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="90">
+    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43663</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="360">
+    <row r="38" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43663</v>
       </c>
@@ -2567,7 +2569,7 @@
       </c>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" ht="210">
+    <row r="39" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43663</v>
       </c>
@@ -2597,7 +2599,7 @@
       </c>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="315">
+    <row r="40" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43663</v>
       </c>
@@ -2630,7 +2632,7 @@
       </c>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="285">
+    <row r="41" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43662</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="240">
+    <row r="42" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43662</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="409.5">
+    <row r="43" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43662</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="165">
+    <row r="44" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43662</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="165">
+    <row r="45" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43662</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="285">
+    <row r="46" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43662</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="225">
+    <row r="47" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43662</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="300">
+    <row r="48" spans="1:13" ht="300" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43662</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="105">
+    <row r="49" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43662</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="255">
+    <row r="50" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43662</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="105">
+    <row r="51" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43662</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="240">
+    <row r="52" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43662</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="409.5">
+    <row r="53" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43662</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="300">
+    <row r="54" spans="1:13" ht="300" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>43662</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="409.5">
+    <row r="55" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>43662</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="409.5">
+    <row r="56" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>43665</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="240">
+    <row r="57" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>43665</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="240">
+    <row r="58" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>43665</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="225">
+    <row r="59" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>43665</v>
       </c>
@@ -3232,7 +3234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="285">
+    <row r="60" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>43665</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>243</v>
       </c>
@@ -3291,20 +3293,1971 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FDBB91-D415-41E1-9EF6-042F453C121F}">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="99.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>43665</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43665</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>43664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>43664</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>43664</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>43664</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>157</v>
+      </c>
+      <c r="M36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s">
+        <v>185</v>
+      </c>
+      <c r="M42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" t="s">
+        <v>188</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" t="s">
+        <v>189</v>
+      </c>
+      <c r="M44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K47" t="s">
+        <v>202</v>
+      </c>
+      <c r="M47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>43</v>
+      </c>
+      <c r="M50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" t="s">
+        <v>221</v>
+      </c>
+      <c r="H54" t="s">
+        <v>222</v>
+      </c>
+      <c r="I54" t="s">
+        <v>223</v>
+      </c>
+      <c r="J54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>224</v>
+      </c>
+      <c r="G55" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>43665</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>43665</v>
+      </c>
+      <c r="C57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" t="s">
+        <v>234</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>43665</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
+        <v>236</v>
+      </c>
+      <c r="H58" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>43665</v>
+      </c>
+      <c r="C59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>43665</v>
+      </c>
+      <c r="C60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" t="s">
+        <v>241</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F7094-DF17-4137-A089-E1153E7F4E92}">
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -3312,13 +5265,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3326,7 +5279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3334,7 +5287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -3342,7 +5295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3350,13 +5303,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3364,7 +5317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -3372,7 +5325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -3380,7 +5333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -3388,7 +5341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3396,7 +5349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3404,13 +5357,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -3418,13 +5371,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -3432,7 +5385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3440,7 +5393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3448,7 +5401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +5409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
@@ -3464,7 +5417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
@@ -3472,7 +5425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3480,7 +5433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3488,7 +5441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3496,19 +5449,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -3516,7 +5469,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3524,7 +5477,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -3532,7 +5485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -3540,7 +5493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75">
+    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -3548,7 +5501,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -3556,7 +5509,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
@@ -3564,13 +5517,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -3578,7 +5531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3586,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>167</v>
       </c>
@@ -3594,13 +5547,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="30">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -3608,7 +5561,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -3616,7 +5569,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -3624,7 +5577,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45">
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -3632,7 +5585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -3640,19 +5593,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="30">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -3660,7 +5613,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3668,7 +5621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
@@ -3676,7 +5629,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +5637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
@@ -3692,7 +5645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
@@ -3700,7 +5653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -3708,7 +5661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
@@ -3716,7 +5669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -3724,7 +5677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -3732,7 +5685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -3740,7 +5693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
@@ -3748,7 +5701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30">
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +5709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
@@ -3765,7 +5718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2DF9B5-7065-4151-B744-72D3B03AEBDC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3773,13 +5726,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +5767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43662</v>
       </c>
@@ -3837,7 +5790,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43662</v>
       </c>
@@ -3860,7 +5813,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43663</v>
       </c>

--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E366E1-D21C-4EB3-A64C-81E2318CCC6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC2CB0-D2BB-4688-9DB7-5AE5E2834230}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="252">
   <si>
     <t>DATE</t>
   </si>
@@ -912,6 +912,9 @@
   <si>
     <t>Facts First: We can't be sure how much individuals' 401(k)s are up, but these percentages overstate gains in US stock markets._x000D_
 It is possible that some people have 401(k)s that are up as much as 80% or 90% on the year or since Trump was elected, but stock markets themselves are not up nearly that much even if you go back to Trump's election day, as Trump often does: 48% for the Dow, 39% for the S&amp;P, 58% for the Nasdaq.</t>
+  </si>
+  <si>
+    <t>kind_of_forum</t>
   </si>
 </sst>
 </file>
@@ -3294,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FDBB91-D415-41E1-9EF6-042F453C121F}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5227,14 +5230,6 @@
       </c>
       <c r="J60" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I61" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC2CB0-D2BB-4688-9DB7-5AE5E2834230}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B0FB2-8156-48CD-9FCB-CBE8E4A10EFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="False" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="368">
   <si>
     <t>DATE</t>
   </si>
@@ -884,7 +884,407 @@
     <t>Popularity</t>
   </si>
   <si>
-    <t>xxx debt claim</t>
+    <t>Moon landing commemoration</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Debt size</t>
+  </si>
+  <si>
+    <t>"And don't forget: President Obama, during his eight years, he created -- he doubled the debt. You take every president -- every president prior to President Obama -- he then took it and doubled the debt over $10 trillion. Ten trillion, with a 'T,' not a 'B.' Not a million, not a billion. President Obama put $10 trillion -- it doubled the debt. It was at 10, it went to 20, went to even above 20."</t>
+  </si>
+  <si>
+    <t>Facts First: Trump was roughly correct with most of this claim, but he was incorrect that the debt went to "above 20 (trillion)" under Obama. It got close, but it first hit the $20 trillion threshold in September 2017, during the Trump presidency._x000D_
+During President Obama's tenure, the country's total debt -- which includes money owed to other government entities like Social Security -- went from $10.6 trillion to $19.9 trillion._x000D_
+That's not quite a doubling but not far off, and not quite a $10 trillion increase but not far off. If you look only at debt owed to the public, the debt did more than double under Obama, from $6.3 trillion to $14.4 trillion._x000D_
+But the total debt never hit the $20 trillion mark until Trump's first year in office, as the tax cuts he passed at the end of 2017 took effect and lowered revenue to the Treasury._x000D_
+It's also worth noting that Obama was not solely responsible for the debt increase during his presidency. Some of it was incurred because of spending intended to address the recession he inherited from the George W. Bush era; in the aftermath of the 2008 financial crisis, Congress and Obama were forced to approve stimulus funding to keep the US economy from collapse. And Congress, controlled by Republicans in full or in part for Obama's last six years in office, writes and approves spending bills.</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2019/07/23/politics/weekly-trump-fact-check-july-2019-61-false/index.html</t>
+  </si>
+  <si>
+    <t>USMCA speech</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Auto Companies</t>
+  </si>
+  <si>
+    <t>"And your executives know this: Companies are pouring back into our nation. Automobile companies from Japan and other nations are pouring back in. Many, many of the great auto companies are coming back into Michigan. They're coming back into Pennsylvania, Ohio, Florida, North Carolina."</t>
+  </si>
+  <si>
+    <t>Facts First: There are no major automotive plants in Pennsylvania, Florida or North Carolina (North Carolina does have plants making commercial buses and heavy-duty trucks), and there are no known plans to build any in those states, according to the Center for Automotive Research in Michigan._x000D_
+Trump could be referring to auto parts companies or other smaller firms in the industry, but he has repeatedly created the impression that he is talking about major automakers._x000D_
+Automakers have made major investments in Michigan and Ohio during Trump's presidency.</t>
+  </si>
+  <si>
+    <t>USMCA</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2019/07/23/politics/trump-fact-check-week-july-8-to-july-14/index.html</t>
+  </si>
+  <si>
+    <t>Wisconsin Economy</t>
+  </si>
+  <si>
+    <t>"And you (Wisconsin) had the greatest year you've ever had in the history of this state. This is a great state, but you had your best economic year that you've ever had, so that's great."</t>
+  </si>
+  <si>
+    <t>Facts First: This is hyperbole. Wisconsin's economy has been growing under Trump, but it has not had its best year ever in terms of either job growth or overall growth._x000D_
+The state said in an official report: "Wisconsin added just 21,500 jobs in 2017 and 23,000 in 2018, after adding an average of 33,700 jobs per year between 2011 and 2016. Wisconsin employment posted year‐over‐year growth of 0.7% in 2017 and 0.8% in 2018, compared to growth of 1.6% nationwide."_x000D_
+The state's 2018 growth rate of 2.5% was the best since 2010 -- good, but not the best ever.</t>
+  </si>
+  <si>
+    <t>Social media summit speech</t>
+  </si>
+  <si>
+    <t>"Women, I think, Kellyanne (Conway), the best in 75 years -- the best unemployment numbers in 75 years."</t>
+  </si>
+  <si>
+    <t>Facts First: Trump exaggerated slightly. The women's unemployment rate for June was 3.6%, a tick above the 3.4% in April and 3.5% in May._x000D_
+It has been 66 years since the women's rate has been this low, not 75 years.</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Job creation</t>
+  </si>
+  <si>
+    <t>"Since the election, we have created more than 6 million new jobs. Nobody would have believed that during the campaign. If I would have said '6 million jobs,' they would have said, 'Oh, that's -- no, he's exaggerating.' I did say like 4 million, but we got 6 million. So I was under-exaggerating."</t>
+  </si>
+  <si>
+    <t>Facts First: The economy has added more than 6 million jobs since the election, but Trump did not promise during the 2016 campaign to create "like 4 million" jobs by this point in his presidency._x000D_
+His signature jobs promise was to create 25 million jobs over 10 years.</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>"Our nation was made of vibrant and strong -- and it's got to be the most powerful, the best -- it really was made with American manufacturing. And you know that a previous administration said, 'Manufacturing is gone. You're going to have to take a magic wand to bring it back.' Well, that was wrong."</t>
+  </si>
+  <si>
+    <t>Facts First: The Obama administration did not say this. In his "magic wand" comments in 2016, Obama did say that some manufacturing jobs were gone for good, but he also boasted of how many were still being created._x000D_
+At a PBS town hall in Elkhart, Indiana, during the 2016 campaign, Obama mocked Trump for claiming, without outlining a specific plan, that he would bring back manufacturing jobs that had been lost to Mexico; he asked, "What magic wand do you have?"_x000D_
+But Obama didn't say all manufacturing was gone. He also noted that some manufacturers were indeed coming back, and he boasted that "we've seen more manufacturing jobs created since I've been president than any time since the 1990s" and that "we actually make more stuff, have a bigger manufacturing base today, than we've had in most of our history."</t>
+  </si>
+  <si>
+    <t>Energy Production</t>
+  </si>
+  <si>
+    <t>"We launched an American energy revolution. The United States is now the No. 1 producer of oil and natural gas anywhere in the world, and it's not even close."</t>
+  </si>
+  <si>
+    <t>Facts First: The US became the No. 1 crude oil producer under Trump, but it had already achieved the No. 1 spot in natural gas, and in oil and natural gas combined, under Obama._x000D_
+The government's official source for energy data, the Energy Information Administration, said in 2017: "The United States has been the world's top producer of natural gas since 2009, when US natural gas production surpassed that of Russia, and it has been the world's top producer of petroleum hydrocarbons since 2013, when its production exceeded Saudi Arabia's." The US had surpassed Russia for the top combined spot by 2012, the EIA has reported._x000D_
+It is crude oil production in particular in which the US became top in the world under Trump, according to the EIA: it surpassed Saudi Arabia and Russia in 2018.</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It's not China's fault that we were stupid. It's not China's fault that we allowed it to happen. We lose $500 billion a year." </t>
+  </si>
+  <si>
+    <t>Facts First: The US has never had a $500 billion trade deficit with China. (Trump refers to trade deficits as losses, though most economists don't.)_x000D_
+The 2018 deficit was $381 billion when all kinds of trade were considered, $420 billion when counting goods alone and ignoring trade in services.</t>
+  </si>
+  <si>
+    <t>"China made, over the last 10 years, hundreds of billions of dollars. You could say four to five hundred billion dollars a year. That's not sustainable."</t>
+  </si>
+  <si>
+    <t>China Tariffs</t>
+  </si>
+  <si>
+    <t>"We're taking in billions and billions of dollars in tariffs. I'm giving billions of dollars back to the farmers because they pinpointed the farmers. They said, 'We're not going to buy here. We're not going to buy there because then Trump will stop doing to us what he's doing.' Except the farmers said, 'We don't care because he's right.' Because for 15 years, the farmer -- if you look, 15 years, it's been like this. It's a one-way street and it was a street downward."</t>
+  </si>
+  <si>
+    <t>Facts First: US farmers had not been on a downhill slide for 15 years before Trump imposed his tariffs on China in 2018._x000D_
+Net farm income doubled between 2000 and 2013, from just under $60 billion to just over $120 billion. The Congressional Research Service wrote in 2018: "US farm income experienced a golden period during 2011 through 2014 due to strong commodity prices and robust agricultural exports," setting a record high in 2013.</t>
+  </si>
+  <si>
+    <t>who's paying</t>
+  </si>
+  <si>
+    <t>"And, in the meantime, our government has billions of dollars of money pouring in, and that money is paid for by China through reducing -- if you take a look, what they're doing is they're playing around with their monetary policy to a level like nobody has ever seen before. We're not paying. And they're also pumping out cash into their system. And China is paying; our people are not paying."</t>
+  </si>
+  <si>
+    <t>Facts First: Americans are paying these billions of dollars in Trump tariffs on imported Chinese products._x000D_
+The American importers, not the Chinese exporters, make the actual payments; economic studies, including one by the Federal Reserve Bank of New York, have concluded that the overwhelming majority of the costs are being eaten by Americans._x000D_
+Some companies are moving some of their operations out of China in response the tariffs, but there is not good data on how many. And experts said it is not true to say the firms are entirely "fleeing" the country._x000D_
+"We have stories about firms leaving China, but that was happening before tariffs were applied because Chinese labor and land costs have been rising. Now we have more stories but no documentation that 'many' firms are leaving, given the huge number of foreign firms operating in China. And we certainly don't have evidence that a large number of firms are returning production to the US," said Derek Scissors, an expert on Asian economies as a resident scholar at the conservative American Enterprise Institute._x000D_
+"I think it's untrue to say that companies are leaving China, though it's possible that a handful may have done. What has been happening on a significant scale is that many firms have been moving, or plan to move, some of their supply chain operations out of China to avoid tariffs, and or to go to places where they sense greater political and policy stability," said George Magnus, a research associate at Oxford University's China Centre._x000D_
+Magnus added: "They're going mainly to north Asia, Vietnam and Mexico, though, not the US."</t>
+  </si>
+  <si>
+    <t>Exchange with reporters before Marine One departure</t>
+  </si>
+  <si>
+    <t>White House South Lawn</t>
+  </si>
+  <si>
+    <t>"The Democrats have caused tremendous problems. What they've let China get away with -- for years and years, China has been ripping us off. They're not ripping us off anymore. Right now, companies are fleeing China because of the tariffs. And right now, we're taking in billions of dollars. And, by the way, our people are not paying for it. They're paying for it -- they're paying for it by depressing their currency and they're putting a lot of money."</t>
+  </si>
+  <si>
+    <t>Chinese agriculture spending</t>
+  </si>
+  <si>
+    <t>"But, in the meantime, they were targeted by China. I went to Sonny Perdue, and I said, 'Sonny, how much has China spent, let's say, in the -- in just about the biggest year?' He said, 'Sixteen billion dollars, sir.' I said, 'Here's what I'm doing. I'm giving our farmers $16 billion out of the tariffs, which frankly, are much more than that.'" And: "But now things are pretty good because we are doing $16 billion and that was the most that China ever purchased."</t>
+  </si>
+  <si>
+    <t>Facts First: Sixteen billion dollars is not even close to the most money China has spent buying US agricultural products in a year._x000D_
+The peak was $29.6 billion in 2014, according to the Department of Agriculture.</t>
+  </si>
+  <si>
+    <t>USMCA trade agreement</t>
+  </si>
+  <si>
+    <t>"And here at Derco, you'll be able to expand your commerce with Canadian customers and suppliers (because of the USMCA), and they'll be buying your product. Now they have an incentive to buy your product. Before this deal, they had no incentive whatsoever to buy product in the United States."</t>
+  </si>
+  <si>
+    <t>Facts First: This is nonsensical. Trump's trade agreement with Mexico and Canada is an update to NAFTA._x000D_
+If Canadians will have an incentive to do business with this Lockheed Martin aerospace company under the USMCA, they had an incentive under NAFTA.</t>
+  </si>
+  <si>
+    <t>Dinner in honor of the Emir of Qatar</t>
+  </si>
+  <si>
+    <t>The United States Department of the Treasury</t>
+  </si>
+  <si>
+    <t>Qatar investments</t>
+  </si>
+  <si>
+    <t>"And, Tamim, you've been a friend of mine for a long time, before I did this presidential thing, and we feel very comfortable with each other. And I have to say that the investments that you make in the United States -- one of the largest in the world -- but the investments that you make are very much appreciated. And I know the planes you're buying and all of the other things you're investing in. And I view it differently; I view it as jobs. Because for me, it's jobs."</t>
+  </si>
+  <si>
+    <t>Facts First: Qatar is not one of the largest investors in the United States.
+Out of 46 countries whose 2017 investments were tracked by the US government's investment promotion body SelectUSA, Qatar ranked 35th, with $3.5 billion in investment. Its investments totaled less than $3.5 billion in the four previous years.</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>"They go through houses, they go up, they ring doorbells, they talk to people. How many toilets do they have? How many desks do they have? How many beds? What's their roof made of? The only thing we can't ask is, 'Are you a citizen of the United States?' "</t>
+  </si>
+  <si>
+    <t>Facts First: The decennial census does not ask about the number of toilets, beds or roofing materials. The Census Bureau's supplemental American Community Survey does ask detailed questions about the dwellings of a small sample of households -- but those surveys also ask about citizenship, so Trump would be wrong that they can't ask both at the same time._x000D_
+The 2019 version of the American Community Survey asks people whether their homes have hot and cold running water, a bathtub or shower, and a sink with a faucet. It does not mention toilets, desks or roofing materials.</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>Citizenship question</t>
+  </si>
+  <si>
+    <t>Question: "Did you back down on that (Census decision)?" Trump: "No. No. Not only didn't I back down, I backed up. Because -- anybody else would've given this up a long time ago. The problem is we had three very unfriendly courts...So I asked, 'Is there another way?' And somebody said there's a way that might be better. It might be more accurate. They explained it...So, when I heard this, I said, 'I think that's actually better. I think what we're doing is actually better.' And only the fake news, which there's plenty, would say differently."</t>
+  </si>
+  <si>
+    <t>acts First: We give Trump leeway for political rhetoric, but there is no reasonable argument that he did not back down, or that he did the opposite and "backed up," on the question of putting a citizenship question on the 2020 Census._x000D_
+The option Trump chose -- collecting citizenship data from government entities, without a census question -- was the same one the Census Bureau recommended in a memo to his administration before the administration launched its effort to get the question on the census.</t>
+  </si>
+  <si>
+    <t>No obstruction</t>
+  </si>
+  <si>
+    <t>Question: "But on Robert Mueller, is there anything you'd like Robert Mueller to say about you?" Trump: "There's nothing he can say. He's written a report. The report said, 'No collusion.' And it said, effectively, 'No obstruction,' because there's no obstruction."</t>
+  </si>
+  <si>
+    <t>Facts First: Mueller's report did not say "no obstruction" in any way._x000D_
+Mueller laid out a case that Trump may have committed obstruction, but he explained that he would abide by a Justice Department policy that holds that a sitting president cannot be indicted._x000D_
+"If we had confidence after a thorough investigation of the facts that the President clearly did not commit obstruction of justice, we would so state. We are unable to reach such a judgment," Mueller's report said._x000D_
+It was Attorney General William Barr who determined that the evidence laid out by Mueller was "not sufficient to establish that the President committed an obstruction-of-justice offense."</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t>Mueller Report</t>
+  </si>
+  <si>
+    <t>Mexican troops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"But it's all changing and it's changing very rapidly, and we're doing really well right now. Mexico has 21,000 troops on the border, guarding our border." </t>
+  </si>
+  <si>
+    <t>Facts First: This is the approximate number of Mexican troops stationed at both the US-Mexico border and the country's southern border, not the US-Mexico border alone._x000D_
+Earlier in the day, and in the days following, Trump made clear that the 21,000 troops were on "both their southern border and our southern border."</t>
+  </si>
+  <si>
+    <t>Dems and border</t>
+  </si>
+  <si>
+    <t>"For instance, on the wall: Chuck Schumer was totally in favor of a wall, right Liz (Cheney)? Totally in favor. Everybody: Hillary, everybody. They were all in favor of a wall just a few years ago."</t>
+  </si>
+  <si>
+    <t>Facts First: Some Democrats, but far from all, voted in 2006 to approve a fence on the Mexican border -- a fence Trump himself said was much different than the wall he wanted._x000D_
+In the Senate, 26 Democrats (including Schumer and Clinton) voted yes on the Secure Fence Act, 17 voted no; in the House, it was 64 yes, 131 no. That isn't close to unanimous support._x000D_
+The law was to authorize 700 miles of fencing. Trump himself said during the 2016 campaign that this fencing was not comparable to the giant concrete wall he was proposing: "It was such a little wall, it was such a nothing wall," he told Fox News.</t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>The wall</t>
+  </si>
+  <si>
+    <t>Dems on immigration</t>
+  </si>
+  <si>
+    <t>"They (Democrats) want open borders. They want people to pour in, including criminals — the worst criminals. They want people to pour into our country. Nobody can tell me that's good, politically. Nobody can tell me."</t>
+  </si>
+  <si>
+    <t>Facts First: There's no evidence that anyone wants criminals to 'pour in' to the United States._x000D_
+Some Democrats, including presidential candidates such as Massachusetts Sen. Elizabeth Warren and former US Secretary of Housing and Urban Development Julián Castro, have advocated a significant loosening of immigration law, including a decriminalization of the act of illegally crossing the border, but none of them has proposed literally opening the borders to unrestricted migration.</t>
+  </si>
+  <si>
+    <t>Border conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Very importantly, today, in a few hours, Vice President Pence and the head of Homeland Security are taking the press and congresspeople into detention centers. And we're the ones that said they were crowded. They're crowded because we have a lot of people. But they're in good shape. And the reason is because the fake-news New York Times wrote a phony story. What Border Patrol is doing -- they've become nurses and janitors and doctors. And they're not trained for that. What they've done is so incredible. So they're touring detention centers. And that was my idea because I read a phony story in The New York Times today -- or the other day -- about the detention centers, about the conditions. And I had people calling me up at the highest levels from Border Patrol and ICE, almost crying, about that phony story. And they never saw anything. They have phony sources. They don't even have sources. They write whatever they want. The New York Times is a very dishonest newspaper. They write what they want."</t>
+  </si>
+  <si>
+    <t>Facts First: There is no evidence the Times invented imaginary sources or that its article on squalid conditions for child migrants at a Border Patrol station in Clint, Texas, was substantially false. The Times issued a statement saying, "We are confident in the accuracy of our reporting on the US Border Patrol's detention centers."_x000D_
+Vice President Mike Pence subsequently visited two facilities in the Rio Grande Valley: the Donna Processing Facility, where families are being held, and the McAllen Border Patrol Station, which is holding single adults who have been found crossing into the United States illegally._x000D_
+Children in the Donna facility were lying on cots, watching movies and eating snacks, and the facility had air conditioning and ample space, according to CNN reporters who traveled with Pence. At McAllen, Texas, hundreds of men were overcrowded in a sweltering room with no space for cots._x000D_
+Nothing Pence saw at these facilities disproved what the Times reported about the Clint facility.</t>
+  </si>
+  <si>
+    <t>Donating salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"But, another thing, I get a salary of $400- or $450,000 a year. I don't think any other president has ever given up -- it's a lot of money, almost a half a million dollars. I give it up. I don't think I've ever seen anybody say, 'I give up my salary.' I'm not looking for credit, but I give up my salary. I get zero. I get zero." </t>
+  </si>
+  <si>
+    <t>Facts First: Trump is not the first president to donate his salary._x000D_
+John F. Kennedy and Herbert Hoover also donated theirs.</t>
+  </si>
+  <si>
+    <t>Orlando Rally Attendance</t>
+  </si>
+  <si>
+    <t>"We had sort of an opening rally in Orlando, Florida. We had 109,000, maybe more, wanting to come. We were doing as much as we could to keep people not from coming. We had a 21,000-seat stadium, and then with the basketball court, it held many more than that, it was packed. And we had a similar number outside."</t>
+  </si>
+  <si>
+    <t>Facts First: There were nowhere close to 21,000 people outside the rally as Trump was speaking; the Orlando Sentinel said there were "a few dozen people" in an overflow area. And the arena had a capacity of 20,000 that night, not "many more than" 21,000._x000D_
+The Sentinel reported: "About an hour before the President's speech, the long lines around the Amway were gone and people could easily walk into the event right up to the start of the rally." The city of Orlando, which owns the arena, issued an official crowd count of 19,792, just shy of the 20,000 a city spokesperson said would have been let in, the Sentinel reported.</t>
+  </si>
+  <si>
+    <t>Biden crowd size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You look at Biden. They say he had 600 people. That wasn't 600, that was 150 people. That was 150." </t>
+  </si>
+  <si>
+    <t>Facts First: Independent observers reported that former Vice President Joe Biden did indeed have 600 people at his first public event after announcing his candidacy for the Democratic presidential nomination._x000D_
+The Atlantic said that journalists occupied 100 of the 600 spots at a union hall in Pittsburgh, but that is still 500 non-journalists, not 150.</t>
+  </si>
+  <si>
+    <t>Social media followers</t>
+  </si>
+  <si>
+    <t>Trump alleged a deliberate attempt by social media companies to prevent him from gaining followers, claiming that "a lot of bad things are happening." He said, "People come up to me: 'Sir, we want to follow you; they don't let us on.' " He added later: "I have millions of people, so many people I wouldn't believe it, but I know that we've been blocked. People come up to me and they say, 'Sir, I can't get you. I can't follow you.' "</t>
+  </si>
+  <si>
+    <t>Facts First: There is no evidence that Twitter or other social media companies have made it difficult for people to follow Trump. Trump did briefly lose followers on Twitter last year, but that was part of a broad purge of suspected fake accounts._x000D_
+The purge also removed followers from the accounts of many other famous people. Trump lost approximately 300,000 followers, far fewer than Barack Obama (more than 2 million) and the Dalai Lama (about 375,000), according to a New York Times count._x000D_
+We obviously can't verify what people might have told Trump in private, but following him is not complicated: doing so is simply a matter of signing up for an account, searching his name and clicking a single button.</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Signing of executive order on kidney health</t>
+  </si>
+  <si>
+    <t>Ronald Reagan Building and International Trade Center</t>
+  </si>
+  <si>
+    <t>D.C</t>
+  </si>
+  <si>
+    <t>Right to Try</t>
+  </si>
+  <si>
+    <t>"We're very proud of Right to Try. They've been trying to get it for 44 years. More complicated than you think to get it. A lot of people didn't want to have it. But we got it, and it's just something we're very proud of."</t>
+  </si>
+  <si>
+    <t>Facts First: There had not been a 44-year push for a federal Right to Try law, experts said._x000D_
+The law tries to make it easier for terminally ill patients to access experimental medications that have not received approval for widespread use. Similar laws have been passed at the state level since 2014, soon after the Goldwater Institute, a libertarian think tank, began pushing for them._x000D_
+"I have no idea what 'they've been trying to get' for 44 years. The Right to Try law was a creation of the Goldwater Institute, and it first became state law in 2014 (in Colorado), relatively soon after it was first conceived of," said Alison Bateman-House, assistant professor of medical ethics at New York University's Langone Health.</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>Preexisting Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"And we will always protect patients with preexisting conditions. It's an absolute fact. It's done. The Republican Party will protect patients with preexisting conditions." </t>
+  </si>
+  <si>
+    <t>Facts First: We generally don't fact-check promises, but this one is belied by recent history. Trump's administration and congressional Republicans have repeatedly put forward bills and lawsuits that would weaken Obamacare's protections for people with preexisting conditions._x000D_
+Trump's administration is supporting a Republican lawsuit that is seeking to get all of Obamacare declared void. He has not issued a plan to reinstate the law's protections for people with preexisting conditions if the suit succeeds.</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Environment speech</t>
+  </si>
+  <si>
+    <t>EPA clean-ups</t>
+  </si>
+  <si>
+    <t>"We've refocused the EPA back on its core mission, and, last year, the agency completed more Superfund hazardous waste clean-ups than any year of the previous administrations and set records in almost every year."</t>
+  </si>
+  <si>
+    <t>Facts First: Last year was not a record for the completion of Superfund clean-ups._x000D_
+The Environmental Protection Agency has boasted that last year was a 13-year high in deleting Superfund sites from the National Priorities List: 18 sites were deleted. But a 13-year high is not a record, and 18 deletions is not even close to the actual record; there were 34 deletions in the 1996 fiscal year. Also, Superfund clean-ups tend to take many years. As FactCheck.org noted, all of the 18 sites deleted from the list in 2018 had their physical cleanup work completed by the time Trump took office.</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>California forest management</t>
+  </si>
+  <si>
+    <t>"I spoke to certain countries, and they said, 'Sir, we're a forest nation.' I never thought of a country -- well-known countries: 'We're a forest nation.' I never heard of the term 'forest nation.' They live in forests and they don't have problems. One was telling me that his trees are much more susceptible to fire than what they have in California, but they don't have fires because they manage, they clean, they do what you have to do. There's not so much to burn. And we're going to start doing that. And it's called, remember, 'management.' It's called 'forest management.' So it's a very important term. When I went to California, they sort of scoffed at me for the first two weeks and maybe three weeks, and not so much -- four weeks. And after about five weeks they said, 'You know, he's right. He's right.' So I think you're going to see a lot of good things. It's a lot of area. It's a lot of land."</t>
+  </si>
+  <si>
+    <t>Facts First: The California leaders who criticized his remarks on the state's forest management practices (and minimizing the role of climate change in causing wildfires), including former Gov. Jerry Brown and current Gov. Gavin Newsom, did not ever concede that Trump was correct._x000D_
+The primary subject of the dispute was not the idea that good forest management can play a role in combating wildfires. It was Trump's suggestion, rejected by scientists, that climate change is not a significant cause of the fires._x000D_
+Trump also received criticism for casting sole blame on the state's own forest management practices, since the federal government manages more than half of California's forest land. Scientists and California politicians noted that forest management could not have prevented the major Woolsey Fire last year, which did not start in a forest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"So nobody has treated the military better than President Trump. Nobody. Nobody has even come close. And you see that with budgets, you see that with the pay increases, and you see that with medical. But you know where you see it more than any place is with the vets. Because the vets now have Choice. They never had Choice before. For 40 ... for 44 years ... For 44 years -- we are looking at that. For 44 years, they've tried to get Veterans Choice. I got it. Nobody else could've gotten it ... I've done more in two-and-a-half years than any other President -- nobody's even close -- including, we just said, Veterans Choice and all of the other things I've gotten." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts First: Trump did not get the Veterans Choice program passed. It was signed into law by Obama in 2014.
+In 2018, Trump signed the VA MISSION Act, which expanded and changed the Choice program.
+</t>
+  </si>
+  <si>
+    <t>Veterans</t>
   </si>
   <si>
     <t>informal Remarks</t>
@@ -912,9 +1312,6 @@
   <si>
     <t>Facts First: We can't be sure how much individuals' 401(k)s are up, but these percentages overstate gains in US stock markets._x000D_
 It is possible that some people have 401(k)s that are up as much as 80% or 90% on the year or since Trump was elected, but stock markets themselves are not up nearly that much even if you go back to Trump's election day, as Trump often does: 48% for the Dow, 39% for the S&amp;P, 58% for the Nasdaq.</t>
-  </si>
-  <si>
-    <t>kind_of_forum</t>
   </si>
 </sst>
 </file>
@@ -1306,30 +1703,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I24" sqref="I24"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="13.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.86328125" style="1" customWidth="1"/>
     <col min="9" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="18.1328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>43664</v>
       </c>
@@ -1396,7 +1794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>43663</v>
       </c>
@@ -1419,7 +1817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>43662</v>
       </c>
@@ -1448,7 +1846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>43661</v>
       </c>
@@ -1474,7 +1872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>43661</v>
       </c>
@@ -1503,7 +1901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>43665</v>
       </c>
@@ -1532,7 +1930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>43665</v>
       </c>
@@ -1561,7 +1959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>43664</v>
       </c>
@@ -1590,7 +1988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>43664</v>
       </c>
@@ -1619,7 +2017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>43664</v>
       </c>
@@ -1648,7 +2046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="285" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>43661</v>
       </c>
@@ -1678,7 +2076,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>43661</v>
       </c>
@@ -1710,7 +2108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>43661</v>
       </c>
@@ -1742,7 +2140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>43664</v>
       </c>
@@ -1768,7 +2166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>43663</v>
       </c>
@@ -1801,7 +2199,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>43663</v>
       </c>
@@ -1833,7 +2231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>43663</v>
       </c>
@@ -1868,7 +2266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>43663</v>
       </c>
@@ -1906,7 +2304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>43663</v>
       </c>
@@ -1944,7 +2342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="379.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>43663</v>
       </c>
@@ -1982,7 +2380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>43663</v>
       </c>
@@ -2017,7 +2415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="285" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>43663</v>
       </c>
@@ -2052,7 +2450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>43663</v>
       </c>
@@ -2087,7 +2485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>43663</v>
       </c>
@@ -2122,7 +2520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>43663</v>
       </c>
@@ -2160,7 +2558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>43663</v>
       </c>
@@ -2192,7 +2590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>43663</v>
       </c>
@@ -2224,7 +2622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>43663</v>
       </c>
@@ -2259,7 +2657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>43663</v>
       </c>
@@ -2297,7 +2695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>43663</v>
       </c>
@@ -2332,7 +2730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>43663</v>
       </c>
@@ -2367,7 +2765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>43663</v>
       </c>
@@ -2405,7 +2803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>43663</v>
       </c>
@@ -2440,7 +2838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>43663</v>
       </c>
@@ -2475,7 +2873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>43663</v>
       </c>
@@ -2507,7 +2905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>43663</v>
       </c>
@@ -2539,7 +2937,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="285" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>43663</v>
       </c>
@@ -2572,7 +2970,7 @@
       </c>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>43663</v>
       </c>
@@ -2602,7 +3000,7 @@
       </c>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>43663</v>
       </c>
@@ -2635,7 +3033,7 @@
       </c>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="228" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>43662</v>
       </c>
@@ -2672,7 +3070,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>43662</v>
       </c>
@@ -2705,7 +3103,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>43662</v>
       </c>
@@ -2741,7 +3139,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43662</v>
       </c>
@@ -2777,7 +3175,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>43662</v>
       </c>
@@ -2807,7 +3205,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>43662</v>
       </c>
@@ -2837,7 +3235,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>43662</v>
       </c>
@@ -2873,7 +3271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>43662</v>
       </c>
@@ -2906,7 +3304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>43662</v>
       </c>
@@ -2939,7 +3337,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>43662</v>
       </c>
@@ -2975,7 +3373,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>43662</v>
       </c>
@@ -3008,7 +3406,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>43662</v>
       </c>
@@ -3041,7 +3439,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>43662</v>
       </c>
@@ -3077,7 +3475,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>43662</v>
       </c>
@@ -3106,7 +3504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>43662</v>
       </c>
@@ -3139,7 +3537,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>43665</v>
       </c>
@@ -3168,7 +3566,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>43665</v>
       </c>
@@ -3191,7 +3589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>43665</v>
       </c>
@@ -3214,7 +3612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <v>43665</v>
       </c>
@@ -3237,7 +3635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A60" s="7">
         <v>43665</v>
       </c>
@@ -3263,12 +3661,948 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:13" ht="399" x14ac:dyDescent="0.45">
+      <c r="A61" s="7">
+        <v>43665</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="171" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="171" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="171" x14ac:dyDescent="0.45">
+      <c r="A65" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+      <c r="A66" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+      <c r="A67" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="171" x14ac:dyDescent="0.45">
+      <c r="A74" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="7">
+        <v>43654</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="171" x14ac:dyDescent="0.45">
+      <c r="A76" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A77" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A78" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A79" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A80" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+      <c r="A83" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+      <c r="A84" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A86" s="7">
+        <v>43657</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A87" s="7">
+        <v>43656</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A88" s="7">
+        <v>43656</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+      <c r="A89" s="7">
+        <v>43654</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="7">
+        <v>43654</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="370.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="7">
+        <v>43658</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3290,35 +4624,37 @@
     <hyperlink ref="M18" r:id="rId12" xr:uid="{D3F64EFC-76BA-4230-9D89-D6639F636BAE}"/>
     <hyperlink ref="M18:M35" r:id="rId13" display="https://www.cnn.com/2019/07/18/politics/trump-false-claims-in-greenville-north-carolina-rally/index.html" xr:uid="{BC692D61-0C27-4CBB-AFB7-BD4D7CDA1BFD}"/>
     <hyperlink ref="M56" r:id="rId14" xr:uid="{70D2EBD3-4E4A-4E8F-9BFA-226D2997CA2E}"/>
+    <hyperlink ref="M61" r:id="rId15" xr:uid="{74602315-F756-4BDC-832C-5C4E8F301F62}"/>
+    <hyperlink ref="M62" r:id="rId16" xr:uid="{CF84E17C-FEFA-4EB8-A099-49095ECFFDCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FDBB91-D415-41E1-9EF6-042F453C121F}">
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F9AE44-EA7D-426A-BE9C-20C989BFF8DD}">
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="86.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3359,7 +4695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="8">
         <v>43664</v>
       </c>
@@ -3385,7 +4721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>43663</v>
       </c>
@@ -3408,7 +4744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>43662</v>
       </c>
@@ -3437,7 +4773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>43661</v>
       </c>
@@ -3463,7 +4799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>43661</v>
       </c>
@@ -3492,7 +4828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>43665</v>
       </c>
@@ -3521,7 +4857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>43665</v>
       </c>
@@ -3550,7 +4886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>43664</v>
       </c>
@@ -3579,7 +4915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>43664</v>
       </c>
@@ -3608,7 +4944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>43664</v>
       </c>
@@ -3637,7 +4973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>43661</v>
       </c>
@@ -3666,7 +5002,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="8">
         <v>43661</v>
       </c>
@@ -3698,7 +5034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
         <v>43661</v>
       </c>
@@ -3730,7 +5066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>43664</v>
       </c>
@@ -3756,7 +5092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>43663</v>
       </c>
@@ -3788,7 +5124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
         <v>43663</v>
       </c>
@@ -3820,7 +5156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
         <v>43663</v>
       </c>
@@ -3855,7 +5191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8">
         <v>43663</v>
       </c>
@@ -3893,7 +5229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="8">
         <v>43663</v>
       </c>
@@ -3931,7 +5267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8">
         <v>43663</v>
       </c>
@@ -3969,7 +5305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="8">
         <v>43663</v>
       </c>
@@ -4004,7 +5340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8">
         <v>43663</v>
       </c>
@@ -4039,7 +5375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
         <v>43663</v>
       </c>
@@ -4074,7 +5410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="8">
         <v>43663</v>
       </c>
@@ -4109,7 +5445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="8">
         <v>43663</v>
       </c>
@@ -4147,7 +5483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="8">
         <v>43663</v>
       </c>
@@ -4179,7 +5515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="8">
         <v>43663</v>
       </c>
@@ -4211,7 +5547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="8">
         <v>43663</v>
       </c>
@@ -4246,7 +5582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="8">
         <v>43663</v>
       </c>
@@ -4284,7 +5620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="8">
         <v>43663</v>
       </c>
@@ -4319,7 +5655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="8">
         <v>43663</v>
       </c>
@@ -4354,7 +5690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="8">
         <v>43663</v>
       </c>
@@ -4392,7 +5728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="8">
         <v>43663</v>
       </c>
@@ -4427,7 +5763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="8">
         <v>43663</v>
       </c>
@@ -4462,7 +5798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="8">
         <v>43663</v>
       </c>
@@ -4494,7 +5830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <v>43663</v>
       </c>
@@ -4526,7 +5862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="8">
         <v>43663</v>
       </c>
@@ -4558,7 +5894,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="8">
         <v>43663</v>
       </c>
@@ -4587,7 +5923,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="8">
         <v>43663</v>
       </c>
@@ -4619,7 +5955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="8">
         <v>43662</v>
       </c>
@@ -4654,7 +5990,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="8">
         <v>43662</v>
       </c>
@@ -4686,7 +6022,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="8">
         <v>43662</v>
       </c>
@@ -4721,7 +6057,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="8">
         <v>43662</v>
       </c>
@@ -4756,7 +6092,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="8">
         <v>43662</v>
       </c>
@@ -4785,7 +6121,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="8">
         <v>43662</v>
       </c>
@@ -4814,7 +6150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="8">
         <v>43662</v>
       </c>
@@ -4849,7 +6185,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="8">
         <v>43662</v>
       </c>
@@ -4881,7 +6217,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="8">
         <v>43662</v>
       </c>
@@ -4913,7 +6249,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="8">
         <v>43662</v>
       </c>
@@ -4948,7 +6284,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="8">
         <v>43662</v>
       </c>
@@ -4980,7 +6316,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="8">
         <v>43662</v>
       </c>
@@ -5012,7 +6348,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="8">
         <v>43662</v>
       </c>
@@ -5047,7 +6383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="8">
         <v>43662</v>
       </c>
@@ -5076,7 +6412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="8">
         <v>43662</v>
       </c>
@@ -5108,7 +6444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="8">
         <v>43665</v>
       </c>
@@ -5137,7 +6473,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="8">
         <v>43665</v>
       </c>
@@ -5160,7 +6496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="8">
         <v>43665</v>
       </c>
@@ -5183,7 +6519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="8">
         <v>43665</v>
       </c>
@@ -5206,7 +6542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="8">
         <v>43665</v>
       </c>
@@ -5232,9 +6568,953 @@
         <v>242</v>
       </c>
     </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61" s="8">
+        <v>43665</v>
+      </c>
+      <c r="B61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" t="s">
+        <v>245</v>
+      </c>
+      <c r="G61" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" t="s">
+        <v>247</v>
+      </c>
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" t="s">
+        <v>248</v>
+      </c>
+      <c r="M61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" t="s">
+        <v>253</v>
+      </c>
+      <c r="F62" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s">
+        <v>257</v>
+      </c>
+      <c r="M62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" t="s">
+        <v>269</v>
+      </c>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" t="s">
+        <v>272</v>
+      </c>
+      <c r="I66" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" t="s">
+        <v>279</v>
+      </c>
+      <c r="H69" t="s">
+        <v>278</v>
+      </c>
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" t="s">
+        <v>281</v>
+      </c>
+      <c r="H70" t="s">
+        <v>282</v>
+      </c>
+      <c r="I70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" t="s">
+        <v>285</v>
+      </c>
+      <c r="I71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A72" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" t="s">
+        <v>285</v>
+      </c>
+      <c r="I72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" t="s">
+        <v>69</v>
+      </c>
+      <c r="L72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" t="s">
+        <v>289</v>
+      </c>
+      <c r="G73" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="s">
+        <v>292</v>
+      </c>
+      <c r="G74" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" t="s">
+        <v>294</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" t="s">
+        <v>69</v>
+      </c>
+      <c r="K74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A75" s="8">
+        <v>43654</v>
+      </c>
+      <c r="B75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" t="s">
+        <v>299</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A76" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" t="s">
+        <v>301</v>
+      </c>
+      <c r="H76" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" t="s">
+        <v>300</v>
+      </c>
+      <c r="J76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A77" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" t="s">
+        <v>305</v>
+      </c>
+      <c r="H77" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" t="s">
+        <v>300</v>
+      </c>
+      <c r="J77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A78" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" t="s">
+        <v>308</v>
+      </c>
+      <c r="H78" t="s">
+        <v>309</v>
+      </c>
+      <c r="I78" t="s">
+        <v>310</v>
+      </c>
+      <c r="J78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B79" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" t="s">
+        <v>313</v>
+      </c>
+      <c r="H79" t="s">
+        <v>314</v>
+      </c>
+      <c r="I79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A80" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>315</v>
+      </c>
+      <c r="G80" t="s">
+        <v>316</v>
+      </c>
+      <c r="H80" t="s">
+        <v>317</v>
+      </c>
+      <c r="I80" t="s">
+        <v>318</v>
+      </c>
+      <c r="J80" t="s">
+        <v>319</v>
+      </c>
+      <c r="K80" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" t="s">
+        <v>322</v>
+      </c>
+      <c r="I81" t="s">
+        <v>318</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+      <c r="F82" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" t="s">
+        <v>324</v>
+      </c>
+      <c r="H82" t="s">
+        <v>325</v>
+      </c>
+      <c r="I82" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A83" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B83" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F83" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A84" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" t="s">
+        <v>330</v>
+      </c>
+      <c r="H84" t="s">
+        <v>331</v>
+      </c>
+      <c r="I84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A85" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>332</v>
+      </c>
+      <c r="G85" t="s">
+        <v>333</v>
+      </c>
+      <c r="H85" t="s">
+        <v>334</v>
+      </c>
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A86" s="8">
+        <v>43657</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" t="s">
+        <v>335</v>
+      </c>
+      <c r="G86" t="s">
+        <v>336</v>
+      </c>
+      <c r="H86" t="s">
+        <v>337</v>
+      </c>
+      <c r="I86" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A87" s="8">
+        <v>43656</v>
+      </c>
+      <c r="B87" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" t="s">
+        <v>341</v>
+      </c>
+      <c r="F87" t="s">
+        <v>342</v>
+      </c>
+      <c r="G87" t="s">
+        <v>343</v>
+      </c>
+      <c r="H87" t="s">
+        <v>344</v>
+      </c>
+      <c r="I87" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A88" s="8">
+        <v>43656</v>
+      </c>
+      <c r="B88" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" t="s">
+        <v>341</v>
+      </c>
+      <c r="F88" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88" t="s">
+        <v>347</v>
+      </c>
+      <c r="H88" t="s">
+        <v>348</v>
+      </c>
+      <c r="I88" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A89" s="8">
+        <v>43654</v>
+      </c>
+      <c r="B89" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G89" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89" t="s">
+        <v>353</v>
+      </c>
+      <c r="I89" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A90" s="8">
+        <v>43654</v>
+      </c>
+      <c r="B90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90" t="s">
+        <v>356</v>
+      </c>
+      <c r="H90" t="s">
+        <v>357</v>
+      </c>
+      <c r="I90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A91" s="8">
+        <v>43658</v>
+      </c>
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" t="s">
+        <v>358</v>
+      </c>
+      <c r="H91" t="s">
+        <v>359</v>
+      </c>
+      <c r="I91" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5244,15 +7524,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -5260,13 +7540,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -5274,7 +7554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5282,7 +7562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -5290,7 +7570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -5298,13 +7578,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5312,7 +7592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -5320,7 +7600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -5328,7 +7608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -5336,7 +7616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -5344,7 +7624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -5352,13 +7632,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -5366,13 +7646,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -5380,7 +7660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -5388,7 +7668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -5396,7 +7676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -5404,7 +7684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
@@ -5412,7 +7692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
@@ -5420,7 +7700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -5428,7 +7708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -5436,7 +7716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -5444,19 +7724,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -5464,7 +7744,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -5472,7 +7752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -5480,7 +7760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -5488,7 +7768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -5496,7 +7776,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -5504,7 +7784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
@@ -5512,13 +7792,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -5526,7 +7806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -5534,7 +7814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>167</v>
       </c>
@@ -5542,13 +7822,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -5556,7 +7836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -5564,7 +7844,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -5572,7 +7852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -5580,7 +7860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -5588,19 +7868,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -5608,7 +7888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -5616,7 +7896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,7 +7904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
@@ -5632,7 +7912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
@@ -5640,7 +7920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
@@ -5648,7 +7928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -5656,7 +7936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
@@ -5664,7 +7944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -5672,7 +7952,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -5680,7 +7960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +7968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
@@ -5696,7 +7976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -5704,7 +7984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
@@ -5717,17 +7997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2DF9B5-7065-4151-B744-72D3B03AEBDC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5762,7 +8042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>43662</v>
       </c>
@@ -5770,22 +8050,22 @@
         <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>43662</v>
       </c>
@@ -5793,22 +8073,22 @@
         <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>43663</v>
       </c>
@@ -5822,10 +8102,10 @@
         <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="G4" t="s">
         <v>69</v>

--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aakessler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792F6D13-BD69-4B31-A5BF-4EB9C1BAB1E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87676F-D017-498A-9B19-D1D2EE29A5E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="False" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="764">
   <si>
     <t>DATE</t>
   </si>
@@ -2640,6 +2640,85 @@
   <si>
     <t xml:space="preserve">Facts First: The U.S. government has been charging tariffs on imported Chinese goods for more than two centuries, and it took in hefty sums from such tariffs long before Trump's own tariffs. (Again, it is US importers, not China, who have paid these tariffs.) _x000D_
 The Treasury received $14 billion from tariffs on China in 2014, to look at one pre-Trump year._x000D_
+</t>
+  </si>
+  <si>
+    <t>Debt and spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asked about the increase in debt during his tenure, and told that spending under his watch has been higher than spending under Obama, Trump said, "Sure, but the difference is, he wasn't building up the military. The military was getting depleted. I have to build it up, and I have to build it up from both Bush and from Obama, because with Bush, you know we were in these wars all over the place, and with Obama the same thing, they just never ended." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts First: Military spending is not the primary contributor to the increase in debt under Trump._x000D_
+According to a July analysis by the Committee for a Responsible Federal Budget, legislation signed by Trump will produce a $4.1 trillion increase in the debt between 2017 and 2029. Of that $4.1 trillion, senior vice president Marc Goldwein said, approximately a quarter is attributable to the increase in military spending._x000D_
+Trump's tax cuts are responsible for a much bigger share of the $4.1 trillion: about $1.8 trillion._x000D_
+"There's been across-the board-increases in the deficit, and defense is certainly a piece of it. But to use it as an excuse for the other three-quarters doesn't make a lot of sense to me," Goldwein said._x000D_
+</t>
+  </si>
+  <si>
+    <t>Obama</t>
+  </si>
+  <si>
+    <t>Baltimore and corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Elijah Cummings should do is he should take his Oversight Committee, bring them down to Baltimore, and invest all of it, and really study the billions and billions of dollars that's been stolen. It's been wasted; it's been stolen. And: "But the people of Baltimore are very thankful — they have let us know by the thousands of people — because of the fact that finally somebody is pointing out how corrupt Baltimore is, how billions and billions of dollars have been stolen." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts First: Though Baltimore has had a series of corruption scandals in recent years, there is no evidence that anywhere near "billions and billions" has been "stolen."_x000D_
+We can't definitively fact-check Trump's claim that billions have been "wasted"; he is entitled to his opinion on the effectiveness of spending. But an allegation of billions in actual theft requires proof, and Trump has not provided any._x000D_
+"He has no idea what he's talking about," said Matthew Crenson, professor emeritus of political science at Johns Hopkins University and a scholar of Baltimore's political history. "I'd like to see those billions and billions."_x000D_
+Corruption convictions or cases involving alleged corruption in Baltimore have tended to involve sums of money much smaller than "billions."_x000D_
+In 2009, Mayor Sheila Dixon was convicted of stealing about $1,500 worth of gift cards meant for low-income residents. Mayor Catherine Pugh resigned in May of this year over a scandal involving payments from the University of Maryland Medical System. Pugh, who sat on the nonprofit company's board of directors, received $500,000 for 100,000 copies of a children's book she wrote. (She called the deal a "regrettable mistake.")_x000D_
+</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Baltimore's economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Baltimore's numbers are the worst in the United States on Crime and the Economy. Billions of dollars have been pumped in over the years, but to no avail. The money was stolen or wasted. Ask Elijah Cummings where it went. He should investigate himself with his Oversight Committee!" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts First: Baltimore does not have the worst economic numbers in the United States, though it does rank poorly by several measures._x000D_
+Baltimore had the fourth-worst unemployment rate of major cities in 2018, but its 5.7% rate was substantially better than that of last-place Detroit, which was at 9.0%. In 2017, the Baltimore metropolitan area (which includes more than the city of Baltimore, on which Trump was focusing his attacks) ranked 19th in the country in gross domestic product out of 383 areas studied. The city of Baltimore had a 22.4% poverty rate over the 2013-2017 period, well ahead of such cities as Detroit (37.9%), Bloomington, Indiana (37.5%), and Laredo, Texas (30.6%)._x000D_
+Baltimore did have the highest homicide rate of any major city in 2017, so Trump was accurate in his claim about crime._x000D_
+</t>
+  </si>
+  <si>
+    <t>Interview with C-Span</t>
+  </si>
+  <si>
+    <t>Tweet about Obama wiretapping</t>
+  </si>
+  <si>
+    <t>Talking about his tweeting habits, Trump said, "I sent the one about the 'wiretapping' in quotes, and that turned out to be true. Remember the big deal that was? I heard like about a minute after I sent that, I was called by my people, 'Sir, did you say --' I said, 'Yeah, I did, what's the big deal?' And the reason it was such a big deal is it turned out to be true." -- July 30 interview with C-SPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts First: Trump's tweet about Obama allegedly wiretapping his phones has not been proved true._x000D_
+Trump was referring to the 2017 tweet in which he said, "Terrible! Just found out that Obama had my 'wires tapped' in Trump Tower just before the victory. Nothing found. This is McCarthyism!" (He repeated the allegation in additional tweets the same day, saying, for example, "I'd bet a good lawyer could make a great case out of the fact that President Obama was tapping my phones in October, just prior to Election!")_x000D_
+There is still no evidence that Trump was wiretapped, let alone that Obama ordered a wiretap of Trump. The Justice Department said in a 2017 court filing that there are no records related to wiretaps like the ones Trump described. Then-FBI Director James Comey told Congress in 2017 that "we have no information to support those tweets."_x000D_
+Paul Manafort, who served as Trump's campaign chairman, was wiretapped before and after the election, CNN has reported, and Manafort had a residence in Trump Tower._x000D_
+But a wiretap of someone living in Trump's apartment building is not the same as a wiretap of Trump himself. And there remains no public evidence that Obama was personally involved even in the Manafort wiretaps._x000D_
+</t>
+  </si>
+  <si>
+    <t>Election 2016</t>
+  </si>
+  <si>
+    <t>Rally in Cincinnati</t>
+  </si>
+  <si>
+    <t>VA firing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You couldn't fire anybody. If they were treating our vets badly, you couldn't fire him for anything. People could steal, they could be sadistic to our vets. ... You couldn't fire anybody for almost anything." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts First: While Trump might have been exaggerating here for effect, it's not true that "you couldn't fire anybody" prior to the Veterans Affairs Accountability and Whistleblower Protection Act he signed into law in 2017._x000D_
+The VA fired on average approximately 2,300 employees annually from 2005 to 2016, based on data collected by the Office of Personnel Management. However, the Clarion-Ledger newspaper in Mississippi did find several instances where VA employees who were registered sex offenders or had been indicted for killing patients, for example, retained their jobs. The legislation Trump signed simplified and expedited the process of terminating VA employees._x000D_
 </t>
   </si>
   <si>
@@ -4870,31 +4949,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T222"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I24" sqref="I24"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="13.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.86328125" style="1" customWidth="1"/>
     <col min="9" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="18.1328125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +5017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>43678</v>
       </c>
@@ -4961,7 +5040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="197.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>43654</v>
       </c>
@@ -4990,7 +5069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="171" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>43654</v>
       </c>
@@ -5016,7 +5095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>43654</v>
       </c>
@@ -5042,7 +5121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>43656</v>
       </c>
@@ -5071,7 +5150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>43656</v>
       </c>
@@ -5100,7 +5179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>43657</v>
       </c>
@@ -5132,7 +5211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>43657</v>
       </c>
@@ -5164,7 +5243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="171" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>43657</v>
       </c>
@@ -5190,7 +5269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>43657</v>
       </c>
@@ -5225,7 +5304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>43657</v>
       </c>
@@ -5254,7 +5333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="171" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>43657</v>
       </c>
@@ -5280,7 +5359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>43657</v>
       </c>
@@ -5306,7 +5385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>43657</v>
       </c>
@@ -5332,7 +5411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="171" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>43658</v>
       </c>
@@ -5367,7 +5446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="171" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>43658</v>
       </c>
@@ -5396,7 +5475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="171" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>43658</v>
       </c>
@@ -5428,7 +5507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="228" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>43658</v>
       </c>
@@ -5466,7 +5545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="228" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>43658</v>
       </c>
@@ -5495,7 +5574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="379.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>43658</v>
       </c>
@@ -5527,7 +5606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>43658</v>
       </c>
@@ -5568,7 +5647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>43658</v>
       </c>
@@ -5606,7 +5685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>43658</v>
       </c>
@@ -5644,7 +5723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>43658</v>
       </c>
@@ -5682,7 +5761,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="171" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>43658</v>
       </c>
@@ -5717,7 +5796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="360" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>43658</v>
       </c>
@@ -5743,7 +5822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="255" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>43658</v>
       </c>
@@ -5772,7 +5851,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>43658</v>
       </c>
@@ -5804,7 +5883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>43658</v>
       </c>
@@ -5836,7 +5915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="171" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>43658</v>
       </c>
@@ -5862,7 +5941,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>43658</v>
       </c>
@@ -5894,7 +5973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>43661</v>
       </c>
@@ -5933,7 +6012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>43661</v>
       </c>
@@ -5962,7 +6041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>43661</v>
       </c>
@@ -5988,7 +6067,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>43661</v>
       </c>
@@ -6014,7 +6093,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>43661</v>
       </c>
@@ -6040,7 +6119,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>43662</v>
       </c>
@@ -6070,7 +6149,7 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:19" ht="315" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>43662</v>
       </c>
@@ -6106,7 +6185,7 @@
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="228" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>43662</v>
       </c>
@@ -6144,7 +6223,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>43662</v>
       </c>
@@ -6177,7 +6256,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>43662</v>
       </c>
@@ -6213,7 +6292,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>43662</v>
       </c>
@@ -6246,7 +6325,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43662</v>
       </c>
@@ -6276,7 +6355,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>43662</v>
       </c>
@@ -6312,7 +6391,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>43662</v>
       </c>
@@ -6348,7 +6427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="300" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>43662</v>
       </c>
@@ -6381,7 +6460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>43662</v>
       </c>
@@ -6417,7 +6496,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="255" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>43662</v>
       </c>
@@ -6456,7 +6535,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>43662</v>
       </c>
@@ -6495,7 +6574,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>43662</v>
       </c>
@@ -6528,7 +6607,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>43662</v>
       </c>
@@ -6564,7 +6643,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="300" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>43662</v>
       </c>
@@ -6593,7 +6672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>43663</v>
       </c>
@@ -6625,7 +6704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A55" s="5">
         <v>43663</v>
       </c>
@@ -6657,7 +6736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="330" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>43663</v>
       </c>
@@ -6683,7 +6762,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>43663</v>
       </c>
@@ -6716,7 +6795,7 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>43663</v>
       </c>
@@ -6748,7 +6827,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <v>43663</v>
       </c>
@@ -6783,7 +6862,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A60" s="7">
         <v>43663</v>
       </c>
@@ -6821,7 +6900,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="255" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A61" s="7">
         <v>43663</v>
       </c>
@@ -6859,7 +6938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="255" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="228" x14ac:dyDescent="0.45">
       <c r="A62" s="7">
         <v>43663</v>
       </c>
@@ -6900,7 +6979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A63" s="7">
         <v>43663</v>
       </c>
@@ -6935,7 +7014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="330" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="285" x14ac:dyDescent="0.45">
       <c r="A64" s="7">
         <v>43663</v>
       </c>
@@ -6973,7 +7052,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="345" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A65" s="7">
         <v>43663</v>
       </c>
@@ -7008,7 +7087,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="315" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A66" s="7">
         <v>43663</v>
       </c>
@@ -7043,7 +7122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="285" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A67" s="7">
         <v>43663</v>
       </c>
@@ -7081,7 +7160,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A68" s="7">
         <v>43663</v>
       </c>
@@ -7116,7 +7195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A69" s="7">
         <v>43663</v>
       </c>
@@ -7154,7 +7233,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A70" s="7">
         <v>43663</v>
       </c>
@@ -7189,7 +7268,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="315" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A71" s="7">
         <v>43663</v>
       </c>
@@ -7230,7 +7309,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A72" s="7">
         <v>43663</v>
       </c>
@@ -7268,7 +7347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A73" s="7">
         <v>43663</v>
       </c>
@@ -7306,7 +7385,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="315" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A74" s="7">
         <v>43663</v>
       </c>
@@ -7347,7 +7426,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A75" s="7">
         <v>43663</v>
       </c>
@@ -7385,7 +7464,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="228" x14ac:dyDescent="0.45">
       <c r="A76" s="5">
         <v>43663</v>
       </c>
@@ -7423,7 +7502,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A77" s="7">
         <v>43663</v>
       </c>
@@ -7455,7 +7534,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A78" s="7">
         <v>43663</v>
       </c>
@@ -7490,7 +7569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="360" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="285" x14ac:dyDescent="0.45">
       <c r="A79" s="7">
         <v>43663</v>
       </c>
@@ -7523,7 +7602,7 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" ht="390" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A80" s="7">
         <v>43664</v>
       </c>
@@ -7552,7 +7631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="315" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A81" s="7">
         <v>43664</v>
       </c>
@@ -7581,7 +7660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A82" s="7">
         <v>43664</v>
       </c>
@@ -7610,7 +7689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A83" s="7">
         <v>43664</v>
       </c>
@@ -7639,7 +7718,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="360" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="285" x14ac:dyDescent="0.45">
       <c r="A84" s="7">
         <v>43664</v>
       </c>
@@ -7669,7 +7748,7 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:20" ht="285" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="228" x14ac:dyDescent="0.45">
       <c r="A85" s="7">
         <v>43665</v>
       </c>
@@ -7695,7 +7774,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="375" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A86" s="7">
         <v>43665</v>
       </c>
@@ -7721,7 +7800,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A87" s="7">
         <v>43665</v>
       </c>
@@ -7750,7 +7829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A88" s="7">
         <v>43665</v>
       </c>
@@ -7779,7 +7858,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="114" x14ac:dyDescent="0.45">
       <c r="A89" s="7">
         <v>43665</v>
       </c>
@@ -7808,7 +7887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="225" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A90" s="7">
         <v>43665</v>
       </c>
@@ -7837,7 +7916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="285" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A91" s="7">
         <v>43665</v>
       </c>
@@ -7863,7 +7942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="399" x14ac:dyDescent="0.45">
       <c r="A92" s="7">
         <v>43665</v>
       </c>
@@ -7895,7 +7974,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="390" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A93" s="7">
         <v>43668</v>
       </c>
@@ -7927,7 +8006,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="114" x14ac:dyDescent="0.45">
       <c r="A94" s="7">
         <v>43668</v>
       </c>
@@ -7959,7 +8038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A95" s="7">
         <v>43668</v>
       </c>
@@ -7988,7 +8067,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="315" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A96" s="7">
         <v>43668</v>
       </c>
@@ -8017,7 +8096,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A97" s="7">
         <v>43668</v>
       </c>
@@ -8046,7 +8125,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A98" s="7">
         <v>43668</v>
       </c>
@@ -8075,7 +8154,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A99" s="7">
         <v>43668</v>
       </c>
@@ -8104,7 +8183,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A100" s="7">
         <v>43668</v>
       </c>
@@ -8136,7 +8215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="324.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="7">
         <v>43668</v>
       </c>
@@ -8165,7 +8244,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A102" s="7">
         <v>43668</v>
       </c>
@@ -8194,7 +8273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A103" s="7">
         <v>43668</v>
       </c>
@@ -8223,7 +8302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A104" s="7">
         <v>43668</v>
       </c>
@@ -8255,7 +8334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="285" x14ac:dyDescent="0.45">
       <c r="A105" s="7">
         <v>43668</v>
       </c>
@@ -8281,7 +8360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A106" s="7">
         <v>43668</v>
       </c>
@@ -8307,7 +8386,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A107" s="14">
         <v>43668</v>
       </c>
@@ -8330,7 +8409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A108" s="7">
         <v>43668</v>
       </c>
@@ -8359,7 +8438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="285" x14ac:dyDescent="0.45">
       <c r="A109" s="7">
         <v>43668</v>
       </c>
@@ -8391,7 +8470,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="390" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A110" s="7">
         <v>43668</v>
       </c>
@@ -8420,7 +8499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A111" s="7">
         <v>43669</v>
       </c>
@@ -8449,7 +8528,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A112" s="7">
         <v>43669</v>
       </c>
@@ -8469,7 +8548,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A113" s="7">
         <v>43669</v>
       </c>
@@ -8498,7 +8577,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="171" x14ac:dyDescent="0.45">
       <c r="A114" s="7">
         <v>43669</v>
       </c>
@@ -8527,7 +8606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A115" s="7">
         <v>43669</v>
       </c>
@@ -8559,7 +8638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="228" x14ac:dyDescent="0.45">
       <c r="A116" s="7">
         <v>43669</v>
       </c>
@@ -8585,7 +8664,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="405" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A117" s="7">
         <v>43669</v>
       </c>
@@ -8617,7 +8696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="405" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="342" x14ac:dyDescent="0.45">
       <c r="A118" s="7">
         <v>43669</v>
       </c>
@@ -8649,7 +8728,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A119" s="7">
         <v>43669</v>
       </c>
@@ -8672,7 +8751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A120" s="7">
         <v>43669</v>
       </c>
@@ -8698,7 +8777,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A121" s="7">
         <v>43669</v>
       </c>
@@ -8730,7 +8809,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A122" s="7">
         <v>43669</v>
       </c>
@@ -8765,7 +8844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A123" s="7">
         <v>43669</v>
       </c>
@@ -8800,7 +8879,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="114" x14ac:dyDescent="0.45">
       <c r="A124" s="7">
         <v>43669</v>
       </c>
@@ -8826,7 +8905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="399" x14ac:dyDescent="0.45">
       <c r="A125" s="7">
         <v>43669</v>
       </c>
@@ -8858,7 +8937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A126" s="7">
         <v>43669</v>
       </c>
@@ -8881,7 +8960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A127" s="7">
         <v>43669</v>
       </c>
@@ -8913,7 +8992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A128" s="7">
         <v>43669</v>
       </c>
@@ -8942,7 +9021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A129" s="7">
         <v>43669</v>
       </c>
@@ -8974,7 +9053,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A130" s="7">
         <v>43669</v>
       </c>
@@ -9000,7 +9079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A131" s="7">
         <v>43669</v>
       </c>
@@ -9029,7 +9108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="228" x14ac:dyDescent="0.45">
       <c r="A132" s="7">
         <v>43669</v>
       </c>
@@ -9064,7 +9143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A133" s="7">
         <v>43669</v>
       </c>
@@ -9096,7 +9175,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="342" x14ac:dyDescent="0.45">
       <c r="A134" s="7">
         <v>43669</v>
       </c>
@@ -9122,7 +9201,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A135" s="7">
         <v>43669</v>
       </c>
@@ -9154,7 +9233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A136" s="7">
         <v>43669</v>
       </c>
@@ -9189,7 +9268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A137" s="7">
         <v>43669</v>
       </c>
@@ -9221,7 +9300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="285" x14ac:dyDescent="0.45">
       <c r="A138" s="7">
         <v>43669</v>
       </c>
@@ -9250,7 +9329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A139" s="7">
         <v>43670</v>
       </c>
@@ -9276,7 +9355,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A140" s="7">
         <v>43670</v>
       </c>
@@ -9305,7 +9384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A141" s="7">
         <v>43670</v>
       </c>
@@ -9328,7 +9407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A142" s="7">
         <v>43670</v>
       </c>
@@ -9354,7 +9433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A143" s="7">
         <v>43670</v>
       </c>
@@ -9383,7 +9462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A144" s="7">
         <v>43670</v>
       </c>
@@ -9406,7 +9485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A145" s="7">
         <v>43670</v>
       </c>
@@ -9426,7 +9505,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="285" x14ac:dyDescent="0.45">
       <c r="A146" s="7">
         <v>43670</v>
       </c>
@@ -9449,7 +9528,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A147" s="7">
         <v>43671</v>
       </c>
@@ -9481,7 +9560,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A148" s="7">
         <v>43671</v>
       </c>
@@ -9510,7 +9589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A149" s="7">
         <v>43671</v>
       </c>
@@ -9536,7 +9615,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="300" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A150" s="7">
         <v>43671</v>
       </c>
@@ -9562,7 +9641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A151" s="7">
         <v>43671</v>
       </c>
@@ -9588,7 +9667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="228" x14ac:dyDescent="0.45">
       <c r="A152" s="7">
         <v>43671</v>
       </c>
@@ -9617,7 +9696,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A153" s="7">
         <v>43671</v>
       </c>
@@ -9649,7 +9728,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="342" x14ac:dyDescent="0.45">
       <c r="A154" s="7">
         <v>43671</v>
       </c>
@@ -9678,7 +9757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A155" s="7">
         <v>43672</v>
       </c>
@@ -9707,7 +9786,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A156" s="7">
         <v>43672</v>
       </c>
@@ -9733,7 +9812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A157" s="7">
         <v>43672</v>
       </c>
@@ -9762,7 +9841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="285" x14ac:dyDescent="0.45">
       <c r="A158" s="7">
         <v>43672</v>
       </c>
@@ -9791,7 +9870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A159" s="7">
         <v>43672</v>
       </c>
@@ -9823,7 +9902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A160" s="7">
         <v>43672</v>
       </c>
@@ -9852,7 +9931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="114" x14ac:dyDescent="0.45">
       <c r="A161" s="7">
         <v>43672</v>
       </c>
@@ -9884,7 +9963,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A162" s="7">
         <v>43672</v>
       </c>
@@ -9919,7 +9998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A163" s="7">
         <v>43672</v>
       </c>
@@ -9948,7 +10027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A164" s="7">
         <v>43672</v>
       </c>
@@ -9977,7 +10056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A165" s="7">
         <v>43672</v>
       </c>
@@ -10009,7 +10088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A166" s="7">
         <v>43672</v>
       </c>
@@ -10038,7 +10117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="285" x14ac:dyDescent="0.45">
       <c r="A167" s="7">
         <v>43672</v>
       </c>
@@ -10067,7 +10146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A168" s="7">
         <v>43672</v>
       </c>
@@ -10096,7 +10175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A169" s="7">
         <v>43673</v>
       </c>
@@ -10119,7 +10198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A170" s="7">
         <v>43673</v>
       </c>
@@ -10151,7 +10230,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A171" s="7">
         <v>43673</v>
       </c>
@@ -10177,7 +10256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="114" x14ac:dyDescent="0.45">
       <c r="A172" s="7">
         <v>43674</v>
       </c>
@@ -10203,7 +10282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A173" s="7">
         <v>43675</v>
       </c>
@@ -10232,7 +10311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A174" s="7">
         <v>43675</v>
       </c>
@@ -10261,7 +10340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A175" s="7">
         <v>43676</v>
       </c>
@@ -10287,7 +10366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="228" x14ac:dyDescent="0.45">
       <c r="A176" s="7">
         <v>43676</v>
       </c>
@@ -10310,7 +10389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A177" s="7">
         <v>43676</v>
       </c>
@@ -10339,7 +10418,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A178" s="7">
         <v>43676</v>
       </c>
@@ -10365,7 +10444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A179" s="7">
         <v>43676</v>
       </c>
@@ -10394,7 +10473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="228" x14ac:dyDescent="0.45">
       <c r="A180" s="7">
         <v>43676</v>
       </c>
@@ -10423,7 +10502,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A181" s="7">
         <v>43676</v>
       </c>
@@ -10452,7 +10531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="171" x14ac:dyDescent="0.45">
       <c r="A182" s="7">
         <v>43677</v>
       </c>
@@ -10478,7 +10557,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A183" s="7">
         <v>43677</v>
       </c>
@@ -10501,7 +10580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A184" s="7">
         <v>43677</v>
       </c>
@@ -10527,7 +10606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A185" s="7">
         <v>43678</v>
       </c>
@@ -10550,7 +10629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A186" s="7">
         <v>43678</v>
       </c>
@@ -10576,7 +10655,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A187" s="7">
         <v>43678</v>
       </c>
@@ -10599,7 +10678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A188" s="7">
         <v>43678</v>
       </c>
@@ -10622,7 +10701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A189" s="7">
         <v>43678</v>
       </c>
@@ -10648,7 +10727,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A190" s="7">
         <v>43678</v>
       </c>
@@ -10677,7 +10756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A191" s="7">
         <v>43678</v>
       </c>
@@ -10703,7 +10782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A192" s="7">
         <v>43678</v>
       </c>
@@ -10732,7 +10811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A193" s="7">
         <v>43678</v>
       </c>
@@ -10764,7 +10843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A194" s="7">
         <v>43678</v>
       </c>
@@ -10796,7 +10875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A195" s="7">
         <v>43678</v>
       </c>
@@ -10825,7 +10904,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A196" s="7">
         <v>43678</v>
       </c>
@@ -10854,7 +10933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A197" s="7">
         <v>43678</v>
       </c>
@@ -10883,7 +10962,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A198" s="7">
         <v>43678</v>
       </c>
@@ -10915,7 +10994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A199" s="7">
         <v>43678</v>
       </c>
@@ -10947,7 +11026,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A200" s="7">
         <v>43678</v>
       </c>
@@ -10976,7 +11055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="228" x14ac:dyDescent="0.45">
       <c r="A201" s="7">
         <v>43678</v>
       </c>
@@ -11005,7 +11084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A202" s="7">
         <v>43678</v>
       </c>
@@ -11031,7 +11110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A203" s="7">
         <v>43678</v>
       </c>
@@ -11060,7 +11139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A204" s="7">
         <v>43678</v>
       </c>
@@ -11089,7 +11168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A205" s="7">
         <v>43678</v>
       </c>
@@ -11115,7 +11194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A206" s="7">
         <v>43678</v>
       </c>
@@ -11144,7 +11223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A207" s="7">
         <v>43678</v>
       </c>
@@ -11173,7 +11252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A208" s="7">
         <v>43678</v>
       </c>
@@ -11202,7 +11281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A209" s="7">
         <v>43678</v>
       </c>
@@ -11231,7 +11310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A210" s="7">
         <v>43678</v>
       </c>
@@ -11260,7 +11339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A211" s="7">
         <v>43678</v>
       </c>
@@ -11289,7 +11368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A212" s="7">
         <v>43678</v>
       </c>
@@ -11321,7 +11400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A213" s="7">
         <v>43678</v>
       </c>
@@ -11353,7 +11432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A214" s="7">
         <v>43678</v>
       </c>
@@ -11385,7 +11464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="228" x14ac:dyDescent="0.45">
       <c r="A215" s="7">
         <v>43678</v>
       </c>
@@ -11411,7 +11490,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A216" s="7">
         <v>43678</v>
       </c>
@@ -11443,7 +11522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A217" s="7">
         <v>43678</v>
       </c>
@@ -11472,7 +11551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A218" s="7">
         <v>43678</v>
       </c>
@@ -11507,7 +11586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A219" s="7">
         <v>43679</v>
       </c>
@@ -11527,7 +11606,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A220" s="7">
         <v>43679</v>
       </c>
@@ -11553,7 +11632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A221" s="7">
         <v>43679</v>
       </c>
@@ -11582,7 +11661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="114" x14ac:dyDescent="0.45">
       <c r="A222" s="7">
         <v>43679</v>
       </c>
@@ -11609,6 +11688,142 @@
       </c>
       <c r="L222" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A223" s="7">
+        <v>43676</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="384.75" x14ac:dyDescent="0.45">
+      <c r="A224" s="7">
+        <v>43676</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A225" s="7">
+        <v>43675</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="370.5" x14ac:dyDescent="0.45">
+      <c r="A226" s="7">
+        <v>43676</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A227" s="7">
+        <v>43678</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -11637,31 +11852,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B771A39-5C83-4F36-80AE-709B832686FD}">
-  <dimension ref="A1:N222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B568B23-05CC-4964-8507-0C08DF3EE628}">
+  <dimension ref="A1:N227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16" style="8" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="99.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11705,7 +11920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="8">
         <v>43678</v>
       </c>
@@ -11728,7 +11943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>43654</v>
       </c>
@@ -11757,7 +11972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>43654</v>
       </c>
@@ -11783,7 +11998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>43654</v>
       </c>
@@ -11809,7 +12024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>43656</v>
       </c>
@@ -11838,7 +12053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>43656</v>
       </c>
@@ -11867,7 +12082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>43657</v>
       </c>
@@ -11899,7 +12114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>43657</v>
       </c>
@@ -11931,7 +12146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>43657</v>
       </c>
@@ -11957,7 +12172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>43657</v>
       </c>
@@ -11992,7 +12207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>43657</v>
       </c>
@@ -12021,7 +12236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="8">
         <v>43657</v>
       </c>
@@ -12047,7 +12262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
         <v>43657</v>
       </c>
@@ -12073,7 +12288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>43657</v>
       </c>
@@ -12099,7 +12314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>43658</v>
       </c>
@@ -12134,7 +12349,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
         <v>43658</v>
       </c>
@@ -12163,7 +12378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
         <v>43658</v>
       </c>
@@ -12195,7 +12410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8">
         <v>43658</v>
       </c>
@@ -12233,7 +12448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="8">
         <v>43658</v>
       </c>
@@ -12262,7 +12477,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8">
         <v>43658</v>
       </c>
@@ -12294,7 +12509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="8">
         <v>43658</v>
       </c>
@@ -12335,7 +12550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8">
         <v>43658</v>
       </c>
@@ -12373,7 +12588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
         <v>43658</v>
       </c>
@@ -12411,7 +12626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="8">
         <v>43658</v>
       </c>
@@ -12449,7 +12664,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="8">
         <v>43658</v>
       </c>
@@ -12484,7 +12699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="8">
         <v>43658</v>
       </c>
@@ -12510,7 +12725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="8">
         <v>43658</v>
       </c>
@@ -12539,7 +12754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="8">
         <v>43658</v>
       </c>
@@ -12571,7 +12786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="8">
         <v>43658</v>
       </c>
@@ -12600,7 +12815,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="8">
         <v>43658</v>
       </c>
@@ -12626,7 +12841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="8">
         <v>43658</v>
       </c>
@@ -12658,7 +12873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="8">
         <v>43661</v>
       </c>
@@ -12693,7 +12908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="8">
         <v>43661</v>
       </c>
@@ -12722,7 +12937,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="8">
         <v>43661</v>
       </c>
@@ -12748,7 +12963,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="8">
         <v>43661</v>
       </c>
@@ -12774,7 +12989,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="8">
         <v>43661</v>
       </c>
@@ -12800,7 +13015,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="8">
         <v>43662</v>
       </c>
@@ -12829,7 +13044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="8">
         <v>43662</v>
       </c>
@@ -12864,7 +13079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="8">
         <v>43662</v>
       </c>
@@ -12899,7 +13114,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="8">
         <v>43662</v>
       </c>
@@ -12931,7 +13146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="8">
         <v>43662</v>
       </c>
@@ -12966,7 +13181,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="8">
         <v>43662</v>
       </c>
@@ -12998,7 +13213,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="8">
         <v>43662</v>
       </c>
@@ -13027,7 +13242,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="8">
         <v>43662</v>
       </c>
@@ -13062,7 +13277,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="8">
         <v>43662</v>
       </c>
@@ -13097,7 +13312,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="8">
         <v>43662</v>
       </c>
@@ -13129,7 +13344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="8">
         <v>43662</v>
       </c>
@@ -13164,7 +13379,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="8">
         <v>43662</v>
       </c>
@@ -13202,7 +13417,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="8">
         <v>43662</v>
       </c>
@@ -13240,7 +13455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="8">
         <v>43662</v>
       </c>
@@ -13272,7 +13487,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="8">
         <v>43662</v>
       </c>
@@ -13307,7 +13522,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="8">
         <v>43662</v>
       </c>
@@ -13336,7 +13551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="8">
         <v>43663</v>
       </c>
@@ -13368,7 +13583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="8">
         <v>43663</v>
       </c>
@@ -13400,7 +13615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="8">
         <v>43663</v>
       </c>
@@ -13426,7 +13641,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="8">
         <v>43663</v>
       </c>
@@ -13458,7 +13673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="8">
         <v>43663</v>
       </c>
@@ -13490,7 +13705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="8">
         <v>43663</v>
       </c>
@@ -13525,7 +13740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="8">
         <v>43663</v>
       </c>
@@ -13563,7 +13778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="8">
         <v>43663</v>
       </c>
@@ -13601,7 +13816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="8">
         <v>43663</v>
       </c>
@@ -13642,7 +13857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="8">
         <v>43663</v>
       </c>
@@ -13677,7 +13892,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="8">
         <v>43663</v>
       </c>
@@ -13715,7 +13930,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="8">
         <v>43663</v>
       </c>
@@ -13750,7 +13965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="8">
         <v>43663</v>
       </c>
@@ -13785,7 +14000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="8">
         <v>43663</v>
       </c>
@@ -13823,7 +14038,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="8">
         <v>43663</v>
       </c>
@@ -13858,7 +14073,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="8">
         <v>43663</v>
       </c>
@@ -13896,7 +14111,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="8">
         <v>43663</v>
       </c>
@@ -13931,7 +14146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="8">
         <v>43663</v>
       </c>
@@ -13972,7 +14187,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="8">
         <v>43663</v>
       </c>
@@ -14010,7 +14225,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="8">
         <v>43663</v>
       </c>
@@ -14048,7 +14263,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="8">
         <v>43663</v>
       </c>
@@ -14089,7 +14304,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="8">
         <v>43663</v>
       </c>
@@ -14127,7 +14342,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="8">
         <v>43663</v>
       </c>
@@ -14165,7 +14380,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="8">
         <v>43663</v>
       </c>
@@ -14197,7 +14412,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="8">
         <v>43663</v>
       </c>
@@ -14232,7 +14447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="8">
         <v>43663</v>
       </c>
@@ -14264,7 +14479,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="8">
         <v>43664</v>
       </c>
@@ -14293,7 +14508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="8">
         <v>43664</v>
       </c>
@@ -14322,7 +14537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="8">
         <v>43664</v>
       </c>
@@ -14351,7 +14566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="8">
         <v>43664</v>
       </c>
@@ -14380,7 +14595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="8">
         <v>43664</v>
       </c>
@@ -14409,7 +14624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="8">
         <v>43665</v>
       </c>
@@ -14435,7 +14650,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="8">
         <v>43665</v>
       </c>
@@ -14461,7 +14676,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="8">
         <v>43665</v>
       </c>
@@ -14490,7 +14705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="8">
         <v>43665</v>
       </c>
@@ -14516,7 +14731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="8">
         <v>43665</v>
       </c>
@@ -14545,7 +14760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="8">
         <v>43665</v>
       </c>
@@ -14574,7 +14789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="8">
         <v>43665</v>
       </c>
@@ -14600,7 +14815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="8">
         <v>43665</v>
       </c>
@@ -14632,7 +14847,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="8">
         <v>43668</v>
       </c>
@@ -14664,7 +14879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="8">
         <v>43668</v>
       </c>
@@ -14696,7 +14911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="8">
         <v>43668</v>
       </c>
@@ -14722,7 +14937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="8">
         <v>43668</v>
       </c>
@@ -14751,7 +14966,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="8">
         <v>43668</v>
       </c>
@@ -14780,7 +14995,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="8">
         <v>43668</v>
       </c>
@@ -14809,7 +15024,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="8">
         <v>43668</v>
       </c>
@@ -14838,7 +15053,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="8">
         <v>43668</v>
       </c>
@@ -14870,7 +15085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="8">
         <v>43668</v>
       </c>
@@ -14899,7 +15114,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="8">
         <v>43668</v>
       </c>
@@ -14928,7 +15143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="8">
         <v>43668</v>
       </c>
@@ -14957,7 +15172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="8">
         <v>43668</v>
       </c>
@@ -14989,7 +15204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="8">
         <v>43668</v>
       </c>
@@ -15015,7 +15230,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="8">
         <v>43668</v>
       </c>
@@ -15041,7 +15256,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="8">
         <v>43668</v>
       </c>
@@ -15064,7 +15279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="8">
         <v>43668</v>
       </c>
@@ -15093,7 +15308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="8">
         <v>43668</v>
       </c>
@@ -15125,7 +15340,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="8">
         <v>43668</v>
       </c>
@@ -15154,7 +15369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="8">
         <v>43669</v>
       </c>
@@ -15183,7 +15398,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="8">
         <v>43669</v>
       </c>
@@ -15203,7 +15418,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="8">
         <v>43669</v>
       </c>
@@ -15232,7 +15447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="8">
         <v>43669</v>
       </c>
@@ -15261,7 +15476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="8">
         <v>43669</v>
       </c>
@@ -15293,7 +15508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="8">
         <v>43669</v>
       </c>
@@ -15319,7 +15534,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="8">
         <v>43669</v>
       </c>
@@ -15351,7 +15566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="8">
         <v>43669</v>
       </c>
@@ -15383,7 +15598,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="8">
         <v>43669</v>
       </c>
@@ -15406,7 +15621,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="8">
         <v>43669</v>
       </c>
@@ -15432,7 +15647,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="8">
         <v>43669</v>
       </c>
@@ -15464,7 +15679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="8">
         <v>43669</v>
       </c>
@@ -15499,7 +15714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="8">
         <v>43669</v>
       </c>
@@ -15534,7 +15749,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="8">
         <v>43669</v>
       </c>
@@ -15560,7 +15775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="8">
         <v>43669</v>
       </c>
@@ -15592,7 +15807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="8">
         <v>43669</v>
       </c>
@@ -15615,7 +15830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="8">
         <v>43669</v>
       </c>
@@ -15647,7 +15862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="8">
         <v>43669</v>
       </c>
@@ -15676,7 +15891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="8">
         <v>43669</v>
       </c>
@@ -15708,7 +15923,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="8">
         <v>43669</v>
       </c>
@@ -15734,7 +15949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="8">
         <v>43669</v>
       </c>
@@ -15763,7 +15978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="8">
         <v>43669</v>
       </c>
@@ -15798,7 +16013,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="8">
         <v>43669</v>
       </c>
@@ -15830,7 +16045,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="8">
         <v>43669</v>
       </c>
@@ -15856,7 +16071,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="8">
         <v>43669</v>
       </c>
@@ -15888,7 +16103,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="8">
         <v>43669</v>
       </c>
@@ -15923,7 +16138,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="8">
         <v>43669</v>
       </c>
@@ -15955,7 +16170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="8">
         <v>43669</v>
       </c>
@@ -15984,7 +16199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="8">
         <v>43670</v>
       </c>
@@ -16010,7 +16225,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="8">
         <v>43670</v>
       </c>
@@ -16039,7 +16254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="8">
         <v>43670</v>
       </c>
@@ -16062,7 +16277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="8">
         <v>43670</v>
       </c>
@@ -16088,7 +16303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="8">
         <v>43670</v>
       </c>
@@ -16117,7 +16332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="8">
         <v>43670</v>
       </c>
@@ -16140,7 +16355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="8">
         <v>43670</v>
       </c>
@@ -16160,7 +16375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="8">
         <v>43670</v>
       </c>
@@ -16183,7 +16398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="8">
         <v>43671</v>
       </c>
@@ -16215,7 +16430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="8">
         <v>43671</v>
       </c>
@@ -16244,7 +16459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="8">
         <v>43671</v>
       </c>
@@ -16270,7 +16485,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="8">
         <v>43671</v>
       </c>
@@ -16296,7 +16511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="8">
         <v>43671</v>
       </c>
@@ -16322,7 +16537,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="8">
         <v>43671</v>
       </c>
@@ -16351,7 +16566,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="8">
         <v>43671</v>
       </c>
@@ -16383,7 +16598,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="8">
         <v>43671</v>
       </c>
@@ -16412,7 +16627,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="8">
         <v>43672</v>
       </c>
@@ -16441,7 +16656,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="8">
         <v>43672</v>
       </c>
@@ -16467,7 +16682,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="8">
         <v>43672</v>
       </c>
@@ -16496,7 +16711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="8">
         <v>43672</v>
       </c>
@@ -16525,7 +16740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="8">
         <v>43672</v>
       </c>
@@ -16557,7 +16772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="8">
         <v>43672</v>
       </c>
@@ -16586,7 +16801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="8">
         <v>43672</v>
       </c>
@@ -16618,7 +16833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="8">
         <v>43672</v>
       </c>
@@ -16653,7 +16868,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="8">
         <v>43672</v>
       </c>
@@ -16682,7 +16897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="8">
         <v>43672</v>
       </c>
@@ -16711,7 +16926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="8">
         <v>43672</v>
       </c>
@@ -16743,7 +16958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="8">
         <v>43672</v>
       </c>
@@ -16772,7 +16987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="8">
         <v>43672</v>
       </c>
@@ -16801,7 +17016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="8">
         <v>43672</v>
       </c>
@@ -16830,7 +17045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="8">
         <v>43673</v>
       </c>
@@ -16853,7 +17068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="8">
         <v>43673</v>
       </c>
@@ -16885,7 +17100,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="8">
         <v>43673</v>
       </c>
@@ -16911,7 +17126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="8">
         <v>43674</v>
       </c>
@@ -16937,7 +17152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="8">
         <v>43675</v>
       </c>
@@ -16966,7 +17181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="8">
         <v>43675</v>
       </c>
@@ -16995,7 +17210,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="8">
         <v>43676</v>
       </c>
@@ -17021,7 +17236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="8">
         <v>43676</v>
       </c>
@@ -17044,7 +17259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="8">
         <v>43676</v>
       </c>
@@ -17073,7 +17288,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="8">
         <v>43676</v>
       </c>
@@ -17099,7 +17314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="8">
         <v>43676</v>
       </c>
@@ -17128,7 +17343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="8">
         <v>43676</v>
       </c>
@@ -17157,7 +17372,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="8">
         <v>43676</v>
       </c>
@@ -17186,7 +17401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="8">
         <v>43677</v>
       </c>
@@ -17212,7 +17427,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="8">
         <v>43677</v>
       </c>
@@ -17235,7 +17450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="8">
         <v>43677</v>
       </c>
@@ -17261,7 +17476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="8">
         <v>43678</v>
       </c>
@@ -17284,7 +17499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="8">
         <v>43678</v>
       </c>
@@ -17310,7 +17525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="8">
         <v>43678</v>
       </c>
@@ -17333,7 +17548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="8">
         <v>43678</v>
       </c>
@@ -17356,7 +17571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="8">
         <v>43678</v>
       </c>
@@ -17382,7 +17597,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="8">
         <v>43678</v>
       </c>
@@ -17411,7 +17626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="8">
         <v>43678</v>
       </c>
@@ -17437,7 +17652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="8">
         <v>43678</v>
       </c>
@@ -17466,7 +17681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="8">
         <v>43678</v>
       </c>
@@ -17498,7 +17713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="8">
         <v>43678</v>
       </c>
@@ -17530,7 +17745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="8">
         <v>43678</v>
       </c>
@@ -17559,7 +17774,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="8">
         <v>43678</v>
       </c>
@@ -17588,7 +17803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="8">
         <v>43678</v>
       </c>
@@ -17617,7 +17832,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="8">
         <v>43678</v>
       </c>
@@ -17649,7 +17864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="8">
         <v>43678</v>
       </c>
@@ -17681,7 +17896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="8">
         <v>43678</v>
       </c>
@@ -17710,7 +17925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="8">
         <v>43678</v>
       </c>
@@ -17739,7 +17954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="8">
         <v>43678</v>
       </c>
@@ -17765,7 +17980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="8">
         <v>43678</v>
       </c>
@@ -17794,7 +18009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="8">
         <v>43678</v>
       </c>
@@ -17823,7 +18038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="8">
         <v>43678</v>
       </c>
@@ -17849,7 +18064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="8">
         <v>43678</v>
       </c>
@@ -17878,7 +18093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="8">
         <v>43678</v>
       </c>
@@ -17907,7 +18122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="8">
         <v>43678</v>
       </c>
@@ -17936,7 +18151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="8">
         <v>43678</v>
       </c>
@@ -17965,7 +18180,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="8">
         <v>43678</v>
       </c>
@@ -17994,7 +18209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="8">
         <v>43678</v>
       </c>
@@ -18023,7 +18238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="8">
         <v>43678</v>
       </c>
@@ -18055,7 +18270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="8">
         <v>43678</v>
       </c>
@@ -18087,7 +18302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="8">
         <v>43678</v>
       </c>
@@ -18119,7 +18334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="8">
         <v>43678</v>
       </c>
@@ -18145,7 +18360,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -18177,7 +18392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="8">
         <v>43678</v>
       </c>
@@ -18206,7 +18421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="8">
         <v>43678</v>
       </c>
@@ -18241,7 +18456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="8">
         <v>43679</v>
       </c>
@@ -18261,7 +18476,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="8">
         <v>43679</v>
       </c>
@@ -18287,7 +18502,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="8">
         <v>43679</v>
       </c>
@@ -18316,7 +18531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="8">
         <v>43679</v>
       </c>
@@ -18343,6 +18558,142 @@
       </c>
       <c r="L222" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A223" s="8">
+        <v>43676</v>
+      </c>
+      <c r="B223" t="s">
+        <v>579</v>
+      </c>
+      <c r="C223" t="s">
+        <v>173</v>
+      </c>
+      <c r="F223" t="s">
+        <v>696</v>
+      </c>
+      <c r="G223" t="s">
+        <v>697</v>
+      </c>
+      <c r="H223" t="s">
+        <v>698</v>
+      </c>
+      <c r="I223" t="s">
+        <v>368</v>
+      </c>
+      <c r="J223" t="s">
+        <v>27</v>
+      </c>
+      <c r="K223" t="s">
+        <v>148</v>
+      </c>
+      <c r="L223" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A224" s="8">
+        <v>43676</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" t="s">
+        <v>700</v>
+      </c>
+      <c r="G224" t="s">
+        <v>701</v>
+      </c>
+      <c r="H224" t="s">
+        <v>702</v>
+      </c>
+      <c r="I224" t="s">
+        <v>703</v>
+      </c>
+      <c r="J224" t="s">
+        <v>574</v>
+      </c>
+      <c r="K224" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A225" s="8">
+        <v>43675</v>
+      </c>
+      <c r="B225" t="s">
+        <v>370</v>
+      </c>
+      <c r="C225" t="s">
+        <v>339</v>
+      </c>
+      <c r="F225" t="s">
+        <v>704</v>
+      </c>
+      <c r="G225" t="s">
+        <v>705</v>
+      </c>
+      <c r="H225" t="s">
+        <v>706</v>
+      </c>
+      <c r="I225" t="s">
+        <v>574</v>
+      </c>
+      <c r="J225" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A226" s="8">
+        <v>43676</v>
+      </c>
+      <c r="B226" t="s">
+        <v>707</v>
+      </c>
+      <c r="C226" t="s">
+        <v>173</v>
+      </c>
+      <c r="F226" t="s">
+        <v>708</v>
+      </c>
+      <c r="G226" t="s">
+        <v>709</v>
+      </c>
+      <c r="H226" t="s">
+        <v>710</v>
+      </c>
+      <c r="I226" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A227" s="8">
+        <v>43678</v>
+      </c>
+      <c r="B227" t="s">
+        <v>712</v>
+      </c>
+      <c r="C227" t="s">
+        <v>608</v>
+      </c>
+      <c r="D227" t="s">
+        <v>609</v>
+      </c>
+      <c r="E227" t="s">
+        <v>610</v>
+      </c>
+      <c r="F227" t="s">
+        <v>713</v>
+      </c>
+      <c r="G227" t="s">
+        <v>714</v>
+      </c>
+      <c r="H227" t="s">
+        <v>715</v>
+      </c>
+      <c r="I227" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -18357,15 +18708,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>343</v>
       </c>
@@ -18373,13 +18724,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -18387,7 +18738,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -18395,7 +18746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -18403,7 +18754,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>164</v>
       </c>
@@ -18411,13 +18762,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>164</v>
       </c>
@@ -18425,7 +18776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>159</v>
       </c>
@@ -18433,7 +18784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>333</v>
       </c>
@@ -18441,7 +18792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>337</v>
       </c>
@@ -18449,7 +18800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
@@ -18457,7 +18808,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>164</v>
       </c>
@@ -18465,13 +18816,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -18479,13 +18830,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -18493,7 +18844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>164</v>
       </c>
@@ -18501,7 +18852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -18509,7 +18860,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -18517,23 +18868,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>210</v>
       </c>
@@ -18541,7 +18892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -18549,7 +18900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -18557,19 +18908,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>238</v>
       </c>
@@ -18577,7 +18928,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>238</v>
       </c>
@@ -18585,7 +18936,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>293</v>
       </c>
@@ -18593,7 +18944,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -18601,15 +18952,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
@@ -18617,7 +18968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>308</v>
       </c>
@@ -18625,13 +18976,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -18639,7 +18990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -18647,21 +18998,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>148</v>
       </c>
@@ -18669,7 +19020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -18677,7 +19028,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -18685,15 +19036,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -18701,19 +19052,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -18721,7 +19072,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>210</v>
       </c>
@@ -18729,7 +19080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -18737,7 +19088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -18745,7 +19096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -18753,7 +19104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -18761,7 +19112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
@@ -18769,15 +19120,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -18785,7 +19136,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -18793,7 +19144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -18801,7 +19152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>164</v>
       </c>
@@ -18809,7 +19160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>164</v>
       </c>
@@ -18817,7 +19168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
@@ -18834,13 +19185,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18875,7 +19226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>43662</v>
       </c>
@@ -18883,22 +19234,22 @@
         <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>43662</v>
       </c>
@@ -18906,22 +19257,22 @@
         <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>43663</v>
       </c>
@@ -18935,10 +19286,10 @@
         <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -18966,29 +19317,29 @@
       <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="9" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="255.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -19030,12 +19381,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="C2" s="8">
         <v>43654</v>
@@ -19065,9 +19416,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C3" s="8">
         <v>43654</v>
@@ -19094,9 +19445,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C4" s="8">
         <v>43654</v>
@@ -19123,9 +19474,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C5" s="8">
         <v>43656</v>
@@ -19152,12 +19503,12 @@
         <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C6" s="8">
         <v>43656</v>
@@ -19184,12 +19535,12 @@
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C7" s="8">
         <v>43657</v>
@@ -19219,9 +19570,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C8" s="8">
         <v>43657</v>
@@ -19254,9 +19605,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C9" s="8">
         <v>43657</v>
@@ -19283,12 +19634,12 @@
         <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C10" s="8">
         <v>43657</v>
@@ -19312,7 +19663,7 @@
         <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="L10" t="s">
         <v>64</v>
@@ -19324,9 +19675,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C11" s="8">
         <v>43657</v>
@@ -19350,7 +19701,7 @@
         <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="L11" t="s">
         <v>65</v>
@@ -19359,9 +19710,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C12" s="8">
         <v>43657</v>
@@ -19388,9 +19739,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C13" s="8">
         <v>43657</v>
@@ -19417,9 +19768,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C14" s="8">
         <v>43657</v>
@@ -19443,12 +19794,12 @@
         <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C15" s="8">
         <v>43658</v>
@@ -19478,12 +19829,12 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C16" s="8">
         <v>43658</v>
@@ -19513,9 +19864,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C17" s="8">
         <v>43658</v>
@@ -19551,9 +19902,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C18" s="8">
         <v>43658</v>
@@ -19592,9 +19943,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C19" s="8">
         <v>43658</v>
@@ -19627,9 +19978,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C20" s="8">
         <v>43658</v>
@@ -19665,9 +20016,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C21" s="8">
         <v>43658</v>
@@ -19709,9 +20060,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C22" s="8">
         <v>43658</v>
@@ -19753,9 +20104,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C23" s="8">
         <v>43658</v>
@@ -19794,9 +20145,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C24" s="8">
         <v>43658</v>
@@ -19814,7 +20165,7 @@
         <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="I24" t="s">
         <v>117</v>
@@ -19835,9 +20186,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C25" s="8">
         <v>43658</v>
@@ -19870,15 +20221,15 @@
         <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="O25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C26" s="8">
         <v>43658</v>
@@ -19905,15 +20256,15 @@
         <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="O26" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C27" s="8">
         <v>43658</v>
@@ -19934,21 +20285,21 @@
         <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="K27" t="s">
         <v>620</v>
       </c>
       <c r="L27" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="O27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C28" s="8">
         <v>43658</v>
@@ -19981,9 +20332,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C29" s="8">
         <v>43658</v>
@@ -20001,13 +20352,13 @@
         <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="J29" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="K29" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="L29" t="s">
         <v>66</v>
@@ -20016,9 +20367,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C30" s="8">
         <v>43658</v>
@@ -20045,9 +20396,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="C31" s="8">
         <v>43658</v>
@@ -20077,12 +20428,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="C32" s="8">
         <v>43661</v>
@@ -20094,7 +20445,7 @@
         <v>339</v>
       </c>
       <c r="H32" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="I32" t="s">
         <v>353</v>
@@ -20112,9 +20463,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C33" s="8">
         <v>43661</v>
@@ -20147,9 +20498,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C34" s="8">
         <v>43661</v>
@@ -20182,9 +20533,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C35" s="8">
         <v>43661</v>
@@ -20220,9 +20571,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C36" s="8">
         <v>43661</v>
@@ -20258,9 +20609,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C37" s="8">
         <v>43662</v>
@@ -20290,9 +20641,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C38" s="8">
         <v>43662</v>
@@ -20325,9 +20676,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C39" s="8">
         <v>43662</v>
@@ -20357,9 +20708,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C40" s="8">
         <v>43662</v>
@@ -20383,7 +20734,7 @@
         <v>192</v>
       </c>
       <c r="K40" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="L40" t="s">
         <v>65</v>
@@ -20392,9 +20743,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C41" s="8">
         <v>43662</v>
@@ -20409,7 +20760,7 @@
         <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="I41" t="s">
         <v>195</v>
@@ -20424,15 +20775,15 @@
         <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="O41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C42" s="8">
         <v>43662</v>
@@ -20456,15 +20807,15 @@
         <v>199</v>
       </c>
       <c r="K42" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="O42" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C43" s="8">
         <v>43662</v>
@@ -20485,7 +20836,7 @@
         <v>201</v>
       </c>
       <c r="J43" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="K43" t="s">
         <v>203</v>
@@ -20494,9 +20845,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C44" s="8">
         <v>43662</v>
@@ -20526,15 +20877,15 @@
         <v>134</v>
       </c>
       <c r="M44" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="O44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C45" s="8">
         <v>43662</v>
@@ -20552,7 +20903,7 @@
         <v>207</v>
       </c>
       <c r="I45" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="J45" t="s">
         <v>209</v>
@@ -20567,9 +20918,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C46" s="8">
         <v>43662</v>
@@ -20602,9 +20953,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C47" s="8">
         <v>43662</v>
@@ -20619,7 +20970,7 @@
         <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="I47" t="s">
         <v>213</v>
@@ -20640,9 +20991,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C48" s="8">
         <v>43662</v>
@@ -20675,9 +21026,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C49" s="8">
         <v>43662</v>
@@ -20710,9 +21061,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C50" s="8">
         <v>43662</v>
@@ -20748,9 +21099,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C51" s="8">
         <v>43662</v>
@@ -20774,7 +21125,7 @@
         <v>227</v>
       </c>
       <c r="K51" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="L51" t="s">
         <v>27</v>
@@ -20783,9 +21134,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C52" s="8">
         <v>43662</v>
@@ -20821,9 +21172,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C53" s="8">
         <v>43663</v>
@@ -20850,9 +21201,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C54" s="8">
         <v>43663</v>
@@ -20870,7 +21221,7 @@
         <v>175</v>
       </c>
       <c r="H54" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="I54" t="s">
         <v>245</v>
@@ -20885,9 +21236,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C55" s="8">
         <v>43663</v>
@@ -20917,9 +21268,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C56" s="8">
         <v>43663</v>
@@ -20955,9 +21306,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C57" s="8">
         <v>43663</v>
@@ -20993,9 +21344,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C58" s="8">
         <v>43663</v>
@@ -21019,7 +21370,7 @@
         <v>257</v>
       </c>
       <c r="J58" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="K58" t="s">
         <v>66</v>
@@ -21031,9 +21382,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C59" s="8">
         <v>43663</v>
@@ -21069,9 +21420,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C60" s="8">
         <v>43663</v>
@@ -21098,15 +21449,15 @@
         <v>192</v>
       </c>
       <c r="K60" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="L60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C61" s="8">
         <v>43663</v>
@@ -21133,7 +21484,7 @@
         <v>267</v>
       </c>
       <c r="K61" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="L61" t="s">
         <v>65</v>
@@ -21142,9 +21493,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C62" s="8">
         <v>43663</v>
@@ -21180,9 +21531,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C63" s="8">
         <v>43663</v>
@@ -21215,9 +21566,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C64" s="8">
         <v>43663</v>
@@ -21253,9 +21604,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C65" s="8">
         <v>43663</v>
@@ -21279,15 +21630,15 @@
         <v>278</v>
       </c>
       <c r="J65" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="K65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C66" s="8">
         <v>43663</v>
@@ -21317,9 +21668,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C67" s="8">
         <v>43663</v>
@@ -21352,9 +21703,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C68" s="8">
         <v>43663</v>
@@ -21378,7 +21729,7 @@
         <v>288</v>
       </c>
       <c r="J68" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="K68" t="s">
         <v>238</v>
@@ -21390,9 +21741,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C69" s="8">
         <v>43663</v>
@@ -21425,9 +21776,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C70" s="8">
         <v>43663</v>
@@ -21460,9 +21811,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C71" s="8">
         <v>43663</v>
@@ -21489,7 +21840,7 @@
         <v>299</v>
       </c>
       <c r="K71" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="L71" t="s">
         <v>301</v>
@@ -21498,9 +21849,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C72" s="8">
         <v>43663</v>
@@ -21533,9 +21884,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C73" s="8">
         <v>43663</v>
@@ -21559,7 +21910,7 @@
         <v>306</v>
       </c>
       <c r="J73" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="K73" t="s">
         <v>308</v>
@@ -21568,9 +21919,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C74" s="8">
         <v>43663</v>
@@ -21594,15 +21945,15 @@
         <v>310</v>
       </c>
       <c r="J74" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="K74" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C75" s="8">
         <v>43663</v>
@@ -21635,9 +21986,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C76" s="8">
         <v>43663</v>
@@ -21664,15 +22015,15 @@
         <v>317</v>
       </c>
       <c r="K76" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="L76" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C77" s="8">
         <v>43663</v>
@@ -21702,9 +22053,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C78" s="8">
         <v>43663</v>
@@ -21737,9 +22088,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C79" s="8">
         <v>43664</v>
@@ -21751,7 +22102,7 @@
         <v>339</v>
       </c>
       <c r="H79" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="I79" t="s">
         <v>341</v>
@@ -21766,9 +22117,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C80" s="8">
         <v>43664</v>
@@ -21798,9 +22149,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C81" s="8">
         <v>43664</v>
@@ -21830,9 +22181,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C82" s="8">
         <v>43664</v>
@@ -21862,9 +22213,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C83" s="8">
         <v>43664</v>
@@ -21885,15 +22236,15 @@
         <v>241</v>
       </c>
       <c r="J83" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="K83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C84" s="8">
         <v>43665</v>
@@ -21923,9 +22274,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C85" s="8">
         <v>43665</v>
@@ -21952,12 +22303,12 @@
         <v>320</v>
       </c>
       <c r="L85" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C86" s="8">
         <v>43665</v>
@@ -21984,9 +22335,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C87" s="8">
         <v>43665</v>
@@ -21995,7 +22346,7 @@
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="I87" t="s">
         <v>162</v>
@@ -22010,9 +22361,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C88" s="8">
         <v>43665</v>
@@ -22036,9 +22387,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C89" s="8">
         <v>43665</v>
@@ -22062,9 +22413,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C90" s="8">
         <v>43665</v>
@@ -22091,9 +22442,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="9" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="C91" s="8">
         <v>43665</v>
@@ -22139,39 +22490,39 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="B4" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="B5" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="B6" s="13">
         <v>90</v>
@@ -22186,228 +22537,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF90C9-2890-4DC2-9B4C-67721096CB1B}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>43675</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>43677</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>43677</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>43675</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>43679</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>43679</v>
       </c>

--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87676F-D017-498A-9B19-D1D2EE29A5E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E0AE0-7421-4F2C-8D42-302CACEBA9AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="False" sheetId="1" r:id="rId1"/>
     <sheet name="ak" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Misleading" sheetId="2" r:id="rId4"/>
-    <sheet name="test assign week manually" sheetId="4" r:id="rId5"/>
-    <sheet name="count the week" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="ak_forstorytest" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Misleading" sheetId="2" r:id="rId5"/>
+    <sheet name="test assign week manually" sheetId="4" r:id="rId6"/>
+    <sheet name="count the week" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="791">
   <si>
     <t>DATE</t>
   </si>
@@ -2892,6 +2893,102 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Campaign Rally in Greenville, NC</t>
+  </si>
+  <si>
+    <t>FACTCHECK_MORETEXT</t>
+  </si>
+  <si>
+    <t>Some Democrats, including presidential candidates such as Elizabeth Warren and Julián Castro, have advocated a significant loosening of immigration law, including a decriminalization of the act of illegally crossing the border. But none of them have proposed literally opening the border to unrestricted migration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were empty seats at this very rally. </t>
+  </si>
+  <si>
+    <t>Democrats have already pulled it off: they installed protections for people with preexisting conditions in the Affordable Care Act, or Obamacare. Republicans, conversely, have repeatedly tried to weaken these protections.</t>
+  </si>
+  <si>
+    <t>Omar did not say that the terrorist organization al Qaeda makes her proud. Trump was inaccurately describing remarks she made in 2013 about how one of her college professors acted when he discussed al Qaeda.</t>
+  </si>
+  <si>
+    <t>A majority of Hispanics oppose Trump's proposed border wall, polls show.</t>
+  </si>
+  <si>
+    <t>California did approve spending of about $100 million to provide Medicaid health coverage to low-income undocumented immigrants between the ages of 19 to 25. But there is no basis for the claim that Democrats want to spend "more" on health care for the undocumented than on citizens.</t>
+  </si>
+  <si>
+    <t>Many human trafficking victims do indeed come through ports of entry, according to experts on trafficking and according to international data. Experts say that victims are more likely to be deceived into crossing the border willingly than kidnapped and put in the back of a vehicle.</t>
+  </si>
+  <si>
+    <t>It is false that Democrats want to "do nothing about" human trafficking. They have joined with Republicans in multiple Trump-era bills on the issue.</t>
+  </si>
+  <si>
+    <t>Some Democrats, but far from all, voted in 2006 to approve a fence on the Mexican border -- a fence Trump himself said was much different than the wall he wanted.</t>
+  </si>
+  <si>
+    <t>Trump's claims about McCready were comprehensively inaccurate.</t>
+  </si>
+  <si>
+    <t>That is not exactly what happened.</t>
+  </si>
+  <si>
+    <t>Particular minority groups are all near their lowest unemployment numbers ever, but the country as a whole is not.</t>
+  </si>
+  <si>
+    <t>North Carolina does not have either its lowest unemployment rate ever or the lowest unemployment rate in the country.</t>
+  </si>
+  <si>
+    <t>There have also been empty seats at various other Trump events. Bloomberg News reporter Josh Wingrove tweeted a photo of what he described as a "smattering" of empty seats in the almost-full 8,000-capacity venue.
+The Dallas News said of Trump's October 18 rally in Houston: "Many hundreds of seats were empty, including all of the boxes on both tiers of the mezzanine." At Trump's Harrisburg, Pennsylvania, rally in April 2017, Philadelphia Inquirer journalist Jonathan Tamari tweeted a photo of rows of empty seats in the upper deck.</t>
+  </si>
+  <si>
+    <t>Trump's administration and congressional Republicans have repeatedly put forward bills and lawsuits that would weaken Obamacare's protections for people with preexisting conditions. Trump is supporting a Republican lawsuit that is seeking to get all of Obamacare declared void. He has not issued a plan to reinstate the law's protections for people with preexisting conditions if the suit succeeds.</t>
+  </si>
+  <si>
+    <t>In a Pew poll in 2018, 75% of Hispanics were opposed to expanding the border wall. In a Quinnipiac University poll in January, 66% of Hispanics were opposed to building a wall. (The questions were phrased slightly differently.)
+The wall is not "being built right now." As of June, no new miles had been constructed. Trump said this spring that replacement fencing should be counted by the media as his "wall," since he is replacing ineffective old barriers with effective modern ones. This is subjective, but we think it's fair to focus on the new barriers he promised during his campaign.</t>
+  </si>
+  <si>
+    <t>Some Democrats, including most of the party's presidential candidates, support offering health insurance to undocumented immigrants around the country. But they are proposing to treat undocumented people the same way citizens are treated, not better than citizens.
+And since there are many fewer undocumented immigrants than citizens -- 10.5 million in 2017, according to Pew -- the total cost of coverage would be much lower.</t>
+  </si>
+  <si>
+    <t>"I have worked on human trafficking on multiple continents in multiple countries for more than two decades, and in all the work that I've done with trafficking victims, I have met one who was actually kidnapped and thrown into a car," Martina Vandenberg of the Human Trafficking Legal Center told CNN in January, when Trump was telling frequent stories about women being bound and gagged in cars.
+Many victims, experts say, are tricked into coming to the US with promises of a good job. Others are coerced through threats to their families or themselves. While experts say there may be some cases like the ones Trump has described, they emphasize that such cases are in a small minority.
+In 2018, the UN International Organization for Migration found that "in the last 10 years, almost 80% of journeys undertaken by victims trafficked internationally cross through official border points, such as airports and land border control points."</t>
+  </si>
+  <si>
+    <t>Trump is arguing that Democrats don't want to address trafficking because they oppose many of his immigration proposals, including a border wall. But that is not the same thing.
+House Democrats introduced and voted unanimously for the Put Trafficking Victims First Act of 2019 and voted overwhelmingly for the Republican-introduced Allow States and Victims to Fight Online Sex Trafficking Act of 2017. Presidential candidates Elizabeth Warren and Kirsten Gillibrand have both introduced legislation on human trafficking.
+Later in this same speech, Trump himself said Democrats have voted for recent human trafficking bills he has signed: "I've proudly signed four bipartisan human trafficking laws, securing $400 million to support victims of human trafficking."</t>
+  </si>
+  <si>
+    <t>In the Senate, 26 Democrats (including Schumer and Clinton) voted yes on the Secure Fence Act, 17 voted no; in the House, it was 64 yes, 131 no. That isn't close to unanimous support.
+The law was to authorize 700 miles of fencing. Trump himself said during the 2016 campaign that this fencing was not comparable to the giant concrete wall he was proposing: "It was such a little wall, it was such a nothing wall," he told Fox News.
+Democrats also endorsed border fencing as part of the failed 2013 "Gang of Eight" comprehensive immigration reform bill. That, however, was part of a compromise package in which undocumented immigrants would be given a path to citizenship -- so Democrats did not go from supporting a standalone fence proposal in 2013 to opposing that same kind of proposal.</t>
+  </si>
+  <si>
+    <t>McCready advocates additional gun control measures, but not taking away people's guns. He is campaigning on tax cuts for "middle class families." And he supports border security measures including "physical barriers."
+McCready's website says: "Dan will fight for common-sense and bipartisan gun violence prevention, comprehensive background checks, and closing the gun show and online loopholes that allow guns to fall into the hands of domestic terrorists, domestic abusers, and the mentally ill." That isn't close to "take away your guns."
+McCready is calling for comprehensive immigration reform "that secures our border, respects our laws and protects our American values." He says the border should be secured by using a mix of physical barriers and technology like drones and infrared cameras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trump did make a joke at a 2018 campaign rally in Arizona about Democrats wanting to give undocumented immigrants a free Rolls-Royce -- but then, at a rally the next day in Nevada, he made a non-joking claim that Democrats want to "give them cars." He continued to joke about a Rolls-Royce in particular, but he was challenged on the assertion of fact.
+He said in Nevada: "They want to open your borders, let people in, illegally. And then they want to pay for those people for health care, for education. They want to give them cars, they want to give them driver's licenses. I said last night, we did a great -- we did a great, great rally in Arizona last night, and I said -- I said last night, what kind of car will they supply them? Will it be a Rolls-Royce?"
+</t>
+  </si>
+  <si>
+    <t>The June unemployment rate was 3.7%. Ignoring the months earlier in the year when it was slightly lower, that is the lowest rate since 1969, not the lowest rate of all time: 2.5% in 1953.
+Black, Asian and Hispanic Americans are at roughly their lowest unemployment rates since the government began tracking them using its current methodology (in the early 1970s for black and Hispanic Americans, 2000 for Asians), though the Asian and Hispanic rates were slightly lower earlier in the year.</t>
+  </si>
+  <si>
+    <t>Its rate in May was 4.1%, 38th of all states. The rate was slightly higher than it was a year prior, 4.0% in May 2018. The rate did drop from 4.2% to 3.7% over the course of 2018.
+North Carolina's unemployment rate has been lower than 4.1% as recently as 2000. So this is a 19-year low (if you ignore previous Trump-era months when it was slightly lower than it is now), not a historic low.</t>
+  </si>
+  <si>
+    <t>FACTCHECK_FACTSFIRST</t>
   </si>
 </sst>
 </file>
@@ -4957,23 +5054,23 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" style="1"/>
-    <col min="6" max="6" width="13.73046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
     <col min="9" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1328125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1328125" style="1"/>
+    <col min="14" max="14" width="18.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43678</v>
       </c>
@@ -5040,7 +5137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="197.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43654</v>
       </c>
@@ -5069,7 +5166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="171" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43654</v>
       </c>
@@ -5095,7 +5192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43654</v>
       </c>
@@ -5121,7 +5218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43656</v>
       </c>
@@ -5150,7 +5247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43656</v>
       </c>
@@ -5179,7 +5276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43657</v>
       </c>
@@ -5211,7 +5308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43657</v>
       </c>
@@ -5243,7 +5340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="171" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43657</v>
       </c>
@@ -5269,7 +5366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43657</v>
       </c>
@@ -5304,7 +5401,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43657</v>
       </c>
@@ -5333,7 +5430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="171" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43657</v>
       </c>
@@ -5359,7 +5456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43657</v>
       </c>
@@ -5385,7 +5482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43657</v>
       </c>
@@ -5411,7 +5508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="171" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43658</v>
       </c>
@@ -5446,7 +5543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="171" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43658</v>
       </c>
@@ -5475,7 +5572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="171" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43658</v>
       </c>
@@ -5507,7 +5604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="228" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="285" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43658</v>
       </c>
@@ -5545,7 +5642,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="228" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="270" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43658</v>
       </c>
@@ -5574,7 +5671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="379.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43658</v>
       </c>
@@ -5606,7 +5703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43658</v>
       </c>
@@ -5647,7 +5744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43658</v>
       </c>
@@ -5685,7 +5782,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43658</v>
       </c>
@@ -5723,7 +5820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43658</v>
       </c>
@@ -5761,7 +5858,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="171" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43658</v>
       </c>
@@ -5796,7 +5893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" ht="360" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43658</v>
       </c>
@@ -5822,7 +5919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43658</v>
       </c>
@@ -5851,7 +5948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>43658</v>
       </c>
@@ -5883,7 +5980,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43658</v>
       </c>
@@ -5915,7 +6012,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="171" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43658</v>
       </c>
@@ -5941,7 +6038,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43658</v>
       </c>
@@ -5973,7 +6070,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43661</v>
       </c>
@@ -6012,7 +6109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43661</v>
       </c>
@@ -6041,7 +6138,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43661</v>
       </c>
@@ -6067,7 +6164,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43661</v>
       </c>
@@ -6093,7 +6190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43661</v>
       </c>
@@ -6119,7 +6216,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43662</v>
       </c>
@@ -6149,7 +6246,7 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43662</v>
       </c>
@@ -6185,7 +6282,7 @@
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:19" ht="228" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" ht="285" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43662</v>
       </c>
@@ -6223,7 +6320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43662</v>
       </c>
@@ -6256,7 +6353,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43662</v>
       </c>
@@ -6292,7 +6389,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43662</v>
       </c>
@@ -6325,7 +6422,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43662</v>
       </c>
@@ -6355,7 +6452,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" ht="285" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43662</v>
       </c>
@@ -6391,7 +6488,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43662</v>
       </c>
@@ -6427,7 +6524,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" ht="300" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43662</v>
       </c>
@@ -6460,7 +6557,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43662</v>
       </c>
@@ -6496,7 +6593,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43662</v>
       </c>
@@ -6535,7 +6632,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43662</v>
       </c>
@@ -6574,7 +6671,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43662</v>
       </c>
@@ -6607,7 +6704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>43662</v>
       </c>
@@ -6643,7 +6740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>43662</v>
       </c>
@@ -6672,7 +6769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>43663</v>
       </c>
@@ -6704,7 +6801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43663</v>
       </c>
@@ -6736,7 +6833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>43663</v>
       </c>
@@ -6762,7 +6859,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>43663</v>
       </c>
@@ -6795,7 +6892,7 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>43663</v>
       </c>
@@ -6827,7 +6924,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>43663</v>
       </c>
@@ -6862,7 +6959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>43663</v>
       </c>
@@ -6900,7 +6997,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>43663</v>
       </c>
@@ -6938,7 +7035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="228" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>43663</v>
       </c>
@@ -6979,7 +7076,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>43663</v>
       </c>
@@ -7014,7 +7111,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="285" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>43663</v>
       </c>
@@ -7052,7 +7149,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" ht="345" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>43663</v>
       </c>
@@ -7087,7 +7184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>43663</v>
       </c>
@@ -7122,7 +7219,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" ht="285" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>43663</v>
       </c>
@@ -7160,7 +7257,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>43663</v>
       </c>
@@ -7195,7 +7292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>43663</v>
       </c>
@@ -7233,7 +7330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>43663</v>
       </c>
@@ -7268,7 +7365,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>43663</v>
       </c>
@@ -7309,7 +7406,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>43663</v>
       </c>
@@ -7347,7 +7444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>43663</v>
       </c>
@@ -7385,7 +7482,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" ht="315" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>43663</v>
       </c>
@@ -7426,7 +7523,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>43663</v>
       </c>
@@ -7464,7 +7561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="228" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43663</v>
       </c>
@@ -7502,7 +7599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>43663</v>
       </c>
@@ -7534,7 +7631,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>43663</v>
       </c>
@@ -7569,7 +7666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="285" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" ht="360" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>43663</v>
       </c>
@@ -7602,7 +7699,7 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" ht="390" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>43664</v>
       </c>
@@ -7631,7 +7728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:20" ht="315" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>43664</v>
       </c>
@@ -7660,7 +7757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>43664</v>
       </c>
@@ -7689,7 +7786,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>43664</v>
       </c>
@@ -7718,7 +7815,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="285" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>43664</v>
       </c>
@@ -7748,7 +7845,7 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:20" ht="228" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:20" ht="285" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>43665</v>
       </c>
@@ -7774,7 +7871,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:20" ht="375" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>43665</v>
       </c>
@@ -7800,7 +7897,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>43665</v>
       </c>
@@ -7829,7 +7926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>43665</v>
       </c>
@@ -7858,7 +7955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="114" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>43665</v>
       </c>
@@ -7887,7 +7984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>43665</v>
       </c>
@@ -7916,7 +8013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:20" ht="285" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>43665</v>
       </c>
@@ -7942,7 +8039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="399" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>43665</v>
       </c>
@@ -7974,7 +8071,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:20" ht="390" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>43668</v>
       </c>
@@ -8006,7 +8103,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="114" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>43668</v>
       </c>
@@ -8038,7 +8135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>43668</v>
       </c>
@@ -8067,7 +8164,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:20" ht="315" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>43668</v>
       </c>
@@ -8096,7 +8193,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>43668</v>
       </c>
@@ -8125,7 +8222,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>43668</v>
       </c>
@@ -8154,7 +8251,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>43668</v>
       </c>
@@ -8183,7 +8280,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>43668</v>
       </c>
@@ -8215,7 +8312,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="324.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>43668</v>
       </c>
@@ -8244,7 +8341,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>43668</v>
       </c>
@@ -8273,7 +8370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>43668</v>
       </c>
@@ -8302,7 +8399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>43668</v>
       </c>
@@ -8334,7 +8431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="285" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>43668</v>
       </c>
@@ -8360,7 +8457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>43668</v>
       </c>
@@ -8386,7 +8483,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>43668</v>
       </c>
@@ -8409,7 +8506,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>43668</v>
       </c>
@@ -8438,7 +8535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="285" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>43668</v>
       </c>
@@ -8470,7 +8567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>43668</v>
       </c>
@@ -8499,7 +8596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>43669</v>
       </c>
@@ -8528,7 +8625,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>43669</v>
       </c>
@@ -8548,7 +8645,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>43669</v>
       </c>
@@ -8577,7 +8674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="171" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>43669</v>
       </c>
@@ -8606,7 +8703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>43669</v>
       </c>
@@ -8638,7 +8735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>43669</v>
       </c>
@@ -8664,7 +8761,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" ht="405" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>43669</v>
       </c>
@@ -8696,7 +8793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="342" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" ht="405" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>43669</v>
       </c>
@@ -8728,7 +8825,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>43669</v>
       </c>
@@ -8751,7 +8848,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>43669</v>
       </c>
@@ -8777,7 +8874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>43669</v>
       </c>
@@ -8809,7 +8906,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>43669</v>
       </c>
@@ -8844,7 +8941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>43669</v>
       </c>
@@ -8879,7 +8976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="114" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>43669</v>
       </c>
@@ -8905,7 +9002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="399" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>43669</v>
       </c>
@@ -8937,7 +9034,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>43669</v>
       </c>
@@ -8960,7 +9057,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>43669</v>
       </c>
@@ -8992,7 +9089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>43669</v>
       </c>
@@ -9021,7 +9118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>43669</v>
       </c>
@@ -9053,7 +9150,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>43669</v>
       </c>
@@ -9079,7 +9176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>43669</v>
       </c>
@@ -9108,7 +9205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>43669</v>
       </c>
@@ -9143,7 +9240,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>43669</v>
       </c>
@@ -9175,7 +9272,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="342" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>43669</v>
       </c>
@@ -9201,7 +9298,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>43669</v>
       </c>
@@ -9233,7 +9330,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>43669</v>
       </c>
@@ -9268,7 +9365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>43669</v>
       </c>
@@ -9300,7 +9397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="285" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>43669</v>
       </c>
@@ -9329,7 +9426,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>43670</v>
       </c>
@@ -9355,7 +9452,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>43670</v>
       </c>
@@ -9384,7 +9481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>43670</v>
       </c>
@@ -9407,7 +9504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>43670</v>
       </c>
@@ -9433,7 +9530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>43670</v>
       </c>
@@ -9462,7 +9559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>43670</v>
       </c>
@@ -9485,7 +9582,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>43670</v>
       </c>
@@ -9505,7 +9602,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="285" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>43670</v>
       </c>
@@ -9528,7 +9625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>43671</v>
       </c>
@@ -9560,7 +9657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>43671</v>
       </c>
@@ -9589,7 +9686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>43671</v>
       </c>
@@ -9615,7 +9712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" ht="300" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>43671</v>
       </c>
@@ -9641,7 +9738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>43671</v>
       </c>
@@ -9667,7 +9764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="228" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>43671</v>
       </c>
@@ -9696,7 +9793,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>43671</v>
       </c>
@@ -9728,7 +9825,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="342" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>43671</v>
       </c>
@@ -9757,7 +9854,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>43672</v>
       </c>
@@ -9786,7 +9883,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>43672</v>
       </c>
@@ -9812,7 +9909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>43672</v>
       </c>
@@ -9841,7 +9938,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="285" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>43672</v>
       </c>
@@ -9870,7 +9967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>43672</v>
       </c>
@@ -9902,7 +9999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>43672</v>
       </c>
@@ -9931,7 +10028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="114" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>43672</v>
       </c>
@@ -9963,7 +10060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>43672</v>
       </c>
@@ -9998,7 +10095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>43672</v>
       </c>
@@ -10027,7 +10124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>43672</v>
       </c>
@@ -10056,7 +10153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>43672</v>
       </c>
@@ -10088,7 +10185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>43672</v>
       </c>
@@ -10117,7 +10214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="285" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>43672</v>
       </c>
@@ -10146,7 +10243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>43672</v>
       </c>
@@ -10175,7 +10272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>43673</v>
       </c>
@@ -10198,7 +10295,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>43673</v>
       </c>
@@ -10230,7 +10327,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>43673</v>
       </c>
@@ -10256,7 +10353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="114" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>43674</v>
       </c>
@@ -10282,7 +10379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>43675</v>
       </c>
@@ -10311,7 +10408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>43675</v>
       </c>
@@ -10340,7 +10437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>43676</v>
       </c>
@@ -10366,7 +10463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>43676</v>
       </c>
@@ -10389,7 +10486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>43676</v>
       </c>
@@ -10418,7 +10515,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>43676</v>
       </c>
@@ -10444,7 +10541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>43676</v>
       </c>
@@ -10473,7 +10570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>43676</v>
       </c>
@@ -10502,7 +10599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>43676</v>
       </c>
@@ -10531,7 +10628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="171" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>43677</v>
       </c>
@@ -10557,7 +10654,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>43677</v>
       </c>
@@ -10580,7 +10677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>43677</v>
       </c>
@@ -10606,7 +10703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>43678</v>
       </c>
@@ -10629,7 +10726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>43678</v>
       </c>
@@ -10655,7 +10752,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>43678</v>
       </c>
@@ -10678,7 +10775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>43678</v>
       </c>
@@ -10701,7 +10798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>43678</v>
       </c>
@@ -10727,7 +10824,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>43678</v>
       </c>
@@ -10756,7 +10853,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>43678</v>
       </c>
@@ -10782,7 +10879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>43678</v>
       </c>
@@ -10811,7 +10908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>43678</v>
       </c>
@@ -10843,7 +10940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>43678</v>
       </c>
@@ -10875,7 +10972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>43678</v>
       </c>
@@ -10904,7 +11001,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>43678</v>
       </c>
@@ -10933,7 +11030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>43678</v>
       </c>
@@ -10962,7 +11059,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>43678</v>
       </c>
@@ -10994,7 +11091,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>43678</v>
       </c>
@@ -11026,7 +11123,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>43678</v>
       </c>
@@ -11055,7 +11152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="228" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>43678</v>
       </c>
@@ -11084,7 +11181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>43678</v>
       </c>
@@ -11110,7 +11207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>43678</v>
       </c>
@@ -11139,7 +11236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>43678</v>
       </c>
@@ -11168,7 +11265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>43678</v>
       </c>
@@ -11194,7 +11291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>43678</v>
       </c>
@@ -11223,7 +11320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>43678</v>
       </c>
@@ -11252,7 +11349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>43678</v>
       </c>
@@ -11281,7 +11378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>43678</v>
       </c>
@@ -11310,7 +11407,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>43678</v>
       </c>
@@ -11339,7 +11436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>43678</v>
       </c>
@@ -11368,7 +11465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>43678</v>
       </c>
@@ -11400,7 +11497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>43678</v>
       </c>
@@ -11432,7 +11529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>43678</v>
       </c>
@@ -11464,7 +11561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="228" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>43678</v>
       </c>
@@ -11490,7 +11587,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>43678</v>
       </c>
@@ -11522,7 +11619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>43678</v>
       </c>
@@ -11551,7 +11648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>43678</v>
       </c>
@@ -11586,7 +11683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>43679</v>
       </c>
@@ -11606,7 +11703,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>43679</v>
       </c>
@@ -11632,7 +11729,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>43679</v>
       </c>
@@ -11661,7 +11758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="114" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>43679</v>
       </c>
@@ -11690,7 +11787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>43676</v>
       </c>
@@ -11722,7 +11819,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>43676</v>
       </c>
@@ -11748,7 +11845,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>43675</v>
       </c>
@@ -11774,7 +11871,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>43676</v>
       </c>
@@ -11797,7 +11894,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>43678</v>
       </c>
@@ -11855,28 +11952,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B568B23-05CC-4964-8507-0C08DF3EE628}">
   <dimension ref="A1:N227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="255.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="99.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="99.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11920,7 +12017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43678</v>
       </c>
@@ -11943,7 +12040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43654</v>
       </c>
@@ -11972,7 +12069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43654</v>
       </c>
@@ -11998,7 +12095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43654</v>
       </c>
@@ -12024,7 +12121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43656</v>
       </c>
@@ -12053,7 +12150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43656</v>
       </c>
@@ -12082,7 +12179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43657</v>
       </c>
@@ -12114,7 +12211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43657</v>
       </c>
@@ -12146,7 +12243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43657</v>
       </c>
@@ -12172,7 +12269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43657</v>
       </c>
@@ -12207,7 +12304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43657</v>
       </c>
@@ -12236,7 +12333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43657</v>
       </c>
@@ -12262,7 +12359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43657</v>
       </c>
@@ -12288,7 +12385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43657</v>
       </c>
@@ -12314,7 +12411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43658</v>
       </c>
@@ -12349,7 +12446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43658</v>
       </c>
@@ -12378,7 +12475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43658</v>
       </c>
@@ -12410,7 +12507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43658</v>
       </c>
@@ -12448,7 +12545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43658</v>
       </c>
@@ -12477,7 +12574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43658</v>
       </c>
@@ -12509,7 +12606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43658</v>
       </c>
@@ -12550,7 +12647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43658</v>
       </c>
@@ -12588,7 +12685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43658</v>
       </c>
@@ -12626,7 +12723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43658</v>
       </c>
@@ -12664,7 +12761,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43658</v>
       </c>
@@ -12699,7 +12796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43658</v>
       </c>
@@ -12725,7 +12822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43658</v>
       </c>
@@ -12754,7 +12851,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43658</v>
       </c>
@@ -12786,7 +12883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>43658</v>
       </c>
@@ -12815,7 +12912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43658</v>
       </c>
@@ -12841,7 +12938,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>43658</v>
       </c>
@@ -12873,7 +12970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43661</v>
       </c>
@@ -12908,7 +13005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>43661</v>
       </c>
@@ -12937,7 +13034,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43661</v>
       </c>
@@ -12963,7 +13060,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>43661</v>
       </c>
@@ -12989,7 +13086,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43661</v>
       </c>
@@ -13015,7 +13112,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>43662</v>
       </c>
@@ -13044,7 +13141,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43662</v>
       </c>
@@ -13079,7 +13176,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>43662</v>
       </c>
@@ -13114,7 +13211,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43662</v>
       </c>
@@ -13146,7 +13243,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>43662</v>
       </c>
@@ -13181,7 +13278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43662</v>
       </c>
@@ -13213,7 +13310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43662</v>
       </c>
@@ -13242,7 +13339,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43662</v>
       </c>
@@ -13277,7 +13374,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>43662</v>
       </c>
@@ -13312,7 +13409,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43662</v>
       </c>
@@ -13344,7 +13441,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>43662</v>
       </c>
@@ -13379,7 +13476,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>43662</v>
       </c>
@@ -13417,7 +13514,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>43662</v>
       </c>
@@ -13455,7 +13552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>43662</v>
       </c>
@@ -13487,7 +13584,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>43662</v>
       </c>
@@ -13522,7 +13619,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>43662</v>
       </c>
@@ -13551,7 +13648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>43663</v>
       </c>
@@ -13583,7 +13680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>43663</v>
       </c>
@@ -13615,7 +13712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>43663</v>
       </c>
@@ -13641,7 +13738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43663</v>
       </c>
@@ -13673,7 +13770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>43663</v>
       </c>
@@ -13705,7 +13802,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>43663</v>
       </c>
@@ -13740,7 +13837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43663</v>
       </c>
@@ -13778,7 +13875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43663</v>
       </c>
@@ -13816,7 +13913,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>43663</v>
       </c>
@@ -13857,7 +13954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>43663</v>
       </c>
@@ -13892,7 +13989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>43663</v>
       </c>
@@ -13930,7 +14027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>43663</v>
       </c>
@@ -13965,7 +14062,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>43663</v>
       </c>
@@ -14000,7 +14097,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>43663</v>
       </c>
@@ -14038,7 +14135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>43663</v>
       </c>
@@ -14073,7 +14170,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>43663</v>
       </c>
@@ -14111,7 +14208,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>43663</v>
       </c>
@@ -14146,7 +14243,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>43663</v>
       </c>
@@ -14187,7 +14284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>43663</v>
       </c>
@@ -14225,7 +14322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>43663</v>
       </c>
@@ -14263,7 +14360,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>43663</v>
       </c>
@@ -14304,7 +14401,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>43663</v>
       </c>
@@ -14342,7 +14439,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>43663</v>
       </c>
@@ -14380,7 +14477,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>43663</v>
       </c>
@@ -14412,7 +14509,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>43663</v>
       </c>
@@ -14447,7 +14544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>43663</v>
       </c>
@@ -14479,7 +14576,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>43664</v>
       </c>
@@ -14508,7 +14605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>43664</v>
       </c>
@@ -14537,7 +14634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>43664</v>
       </c>
@@ -14566,7 +14663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>43664</v>
       </c>
@@ -14595,7 +14692,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>43664</v>
       </c>
@@ -14624,7 +14721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>43665</v>
       </c>
@@ -14650,7 +14747,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>43665</v>
       </c>
@@ -14676,7 +14773,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>43665</v>
       </c>
@@ -14705,7 +14802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>43665</v>
       </c>
@@ -14731,7 +14828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>43665</v>
       </c>
@@ -14760,7 +14857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>43665</v>
       </c>
@@ -14789,7 +14886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>43665</v>
       </c>
@@ -14815,7 +14912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>43665</v>
       </c>
@@ -14847,7 +14944,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>43668</v>
       </c>
@@ -14879,7 +14976,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>43668</v>
       </c>
@@ -14911,7 +15008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>43668</v>
       </c>
@@ -14937,7 +15034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>43668</v>
       </c>
@@ -14966,7 +15063,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>43668</v>
       </c>
@@ -14995,7 +15092,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>43668</v>
       </c>
@@ -15024,7 +15121,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>43668</v>
       </c>
@@ -15053,7 +15150,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>43668</v>
       </c>
@@ -15085,7 +15182,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>43668</v>
       </c>
@@ -15114,7 +15211,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>43668</v>
       </c>
@@ -15143,7 +15240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>43668</v>
       </c>
@@ -15172,7 +15269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>43668</v>
       </c>
@@ -15204,7 +15301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>43668</v>
       </c>
@@ -15230,7 +15327,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>43668</v>
       </c>
@@ -15256,7 +15353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>43668</v>
       </c>
@@ -15279,7 +15376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>43668</v>
       </c>
@@ -15308,7 +15405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>43668</v>
       </c>
@@ -15340,7 +15437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>43668</v>
       </c>
@@ -15369,7 +15466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>43669</v>
       </c>
@@ -15398,7 +15495,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>43669</v>
       </c>
@@ -15418,7 +15515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>43669</v>
       </c>
@@ -15447,7 +15544,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>43669</v>
       </c>
@@ -15476,7 +15573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>43669</v>
       </c>
@@ -15508,7 +15605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>43669</v>
       </c>
@@ -15534,7 +15631,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>43669</v>
       </c>
@@ -15566,7 +15663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>43669</v>
       </c>
@@ -15598,7 +15695,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>43669</v>
       </c>
@@ -15621,7 +15718,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>43669</v>
       </c>
@@ -15647,7 +15744,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>43669</v>
       </c>
@@ -15679,7 +15776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>43669</v>
       </c>
@@ -15714,7 +15811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>43669</v>
       </c>
@@ -15749,7 +15846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>43669</v>
       </c>
@@ -15775,7 +15872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>43669</v>
       </c>
@@ -15807,7 +15904,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>43669</v>
       </c>
@@ -15830,7 +15927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>43669</v>
       </c>
@@ -15862,7 +15959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>43669</v>
       </c>
@@ -15891,7 +15988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>43669</v>
       </c>
@@ -15923,7 +16020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>43669</v>
       </c>
@@ -15949,7 +16046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>43669</v>
       </c>
@@ -15978,7 +16075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>43669</v>
       </c>
@@ -16013,7 +16110,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>43669</v>
       </c>
@@ -16045,7 +16142,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>43669</v>
       </c>
@@ -16071,7 +16168,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>43669</v>
       </c>
@@ -16103,7 +16200,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>43669</v>
       </c>
@@ -16138,7 +16235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>43669</v>
       </c>
@@ -16170,7 +16267,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>43669</v>
       </c>
@@ -16199,7 +16296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>43670</v>
       </c>
@@ -16225,7 +16322,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>43670</v>
       </c>
@@ -16254,7 +16351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>43670</v>
       </c>
@@ -16277,7 +16374,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>43670</v>
       </c>
@@ -16303,7 +16400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>43670</v>
       </c>
@@ -16332,7 +16429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>43670</v>
       </c>
@@ -16355,7 +16452,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>43670</v>
       </c>
@@ -16375,7 +16472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>43670</v>
       </c>
@@ -16398,7 +16495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>43671</v>
       </c>
@@ -16430,7 +16527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>43671</v>
       </c>
@@ -16459,7 +16556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>43671</v>
       </c>
@@ -16485,7 +16582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>43671</v>
       </c>
@@ -16511,7 +16608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>43671</v>
       </c>
@@ -16537,7 +16634,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>43671</v>
       </c>
@@ -16566,7 +16663,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>43671</v>
       </c>
@@ -16598,7 +16695,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>43671</v>
       </c>
@@ -16627,7 +16724,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>43672</v>
       </c>
@@ -16656,7 +16753,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>43672</v>
       </c>
@@ -16682,7 +16779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>43672</v>
       </c>
@@ -16711,7 +16808,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>43672</v>
       </c>
@@ -16740,7 +16837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>43672</v>
       </c>
@@ -16772,7 +16869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>43672</v>
       </c>
@@ -16801,7 +16898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>43672</v>
       </c>
@@ -16833,7 +16930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>43672</v>
       </c>
@@ -16868,7 +16965,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>43672</v>
       </c>
@@ -16897,7 +16994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>43672</v>
       </c>
@@ -16926,7 +17023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>43672</v>
       </c>
@@ -16958,7 +17055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>43672</v>
       </c>
@@ -16987,7 +17084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>43672</v>
       </c>
@@ -17016,7 +17113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>43672</v>
       </c>
@@ -17045,7 +17142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>43673</v>
       </c>
@@ -17068,7 +17165,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>43673</v>
       </c>
@@ -17100,7 +17197,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>43673</v>
       </c>
@@ -17126,7 +17223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>43674</v>
       </c>
@@ -17152,7 +17249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>43675</v>
       </c>
@@ -17181,7 +17278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>43675</v>
       </c>
@@ -17210,7 +17307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>43676</v>
       </c>
@@ -17236,7 +17333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>43676</v>
       </c>
@@ -17259,7 +17356,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>43676</v>
       </c>
@@ -17288,7 +17385,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>43676</v>
       </c>
@@ -17314,7 +17411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>43676</v>
       </c>
@@ -17343,7 +17440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>43676</v>
       </c>
@@ -17372,7 +17469,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>43676</v>
       </c>
@@ -17401,7 +17498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>43677</v>
       </c>
@@ -17427,7 +17524,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>43677</v>
       </c>
@@ -17450,7 +17547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>43677</v>
       </c>
@@ -17476,7 +17573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>43678</v>
       </c>
@@ -17499,7 +17596,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>43678</v>
       </c>
@@ -17525,7 +17622,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>43678</v>
       </c>
@@ -17548,7 +17645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>43678</v>
       </c>
@@ -17571,7 +17668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>43678</v>
       </c>
@@ -17597,7 +17694,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>43678</v>
       </c>
@@ -17626,7 +17723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>43678</v>
       </c>
@@ -17652,7 +17749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>43678</v>
       </c>
@@ -17681,7 +17778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>43678</v>
       </c>
@@ -17713,7 +17810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>43678</v>
       </c>
@@ -17745,7 +17842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>43678</v>
       </c>
@@ -17774,7 +17871,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>43678</v>
       </c>
@@ -17803,7 +17900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>43678</v>
       </c>
@@ -17832,7 +17929,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>43678</v>
       </c>
@@ -17864,7 +17961,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>43678</v>
       </c>
@@ -17896,7 +17993,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>43678</v>
       </c>
@@ -17925,7 +18022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>43678</v>
       </c>
@@ -17954,7 +18051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>43678</v>
       </c>
@@ -17980,7 +18077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>43678</v>
       </c>
@@ -18009,7 +18106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>43678</v>
       </c>
@@ -18038,7 +18135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>43678</v>
       </c>
@@ -18064,7 +18161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>43678</v>
       </c>
@@ -18093,7 +18190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>43678</v>
       </c>
@@ -18122,7 +18219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>43678</v>
       </c>
@@ -18151,7 +18248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>43678</v>
       </c>
@@ -18180,7 +18277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>43678</v>
       </c>
@@ -18209,7 +18306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>43678</v>
       </c>
@@ -18238,7 +18335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>43678</v>
       </c>
@@ -18270,7 +18367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>43678</v>
       </c>
@@ -18302,7 +18399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>43678</v>
       </c>
@@ -18334,7 +18431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>43678</v>
       </c>
@@ -18360,7 +18457,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>43678</v>
       </c>
@@ -18392,7 +18489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>43678</v>
       </c>
@@ -18421,7 +18518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>43678</v>
       </c>
@@ -18456,7 +18553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>43679</v>
       </c>
@@ -18476,7 +18573,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>43679</v>
       </c>
@@ -18502,7 +18599,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>43679</v>
       </c>
@@ -18531,7 +18628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>43679</v>
       </c>
@@ -18560,7 +18657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>43676</v>
       </c>
@@ -18592,7 +18689,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>43676</v>
       </c>
@@ -18618,7 +18715,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>43675</v>
       </c>
@@ -18644,7 +18741,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>43676</v>
       </c>
@@ -18667,7 +18764,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>43678</v>
       </c>
@@ -18703,474 +18800,578 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F7094-DF17-4137-A089-E1153E7F4E92}">
-  <dimension ref="A1:B61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C93A2E-C59F-4009-B404-92A58D2E1097}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="7" max="7" width="74.85546875" customWidth="1"/>
+    <col min="8" max="8" width="78.42578125" customWidth="1"/>
+    <col min="9" max="9" width="92.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="14" width="49" customWidth="1"/>
+    <col min="15" max="15" width="99.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>790</v>
+      </c>
+      <c r="I1" t="s">
+        <v>765</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
+        <v>767</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="s">
+        <v>768</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" t="s">
+        <v>769</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>771</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" t="s">
+        <v>772</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" t="s">
+        <v>773</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" t="s">
+        <v>774</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="J10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" t="s">
+        <v>775</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B12" t="s">
+        <v>764</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" t="s">
+        <v>776</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="O12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" t="s">
+        <v>777</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" t="s">
+        <v>778</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="K14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19178,6 +19379,481 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F7094-DF17-4137-A089-E1153E7F4E92}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2DF9B5-7065-4151-B744-72D3B03AEBDC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -19185,13 +19861,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19226,7 +19902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43662</v>
       </c>
@@ -19249,7 +19925,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43662</v>
       </c>
@@ -19272,7 +19948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43663</v>
       </c>
@@ -19308,7 +19984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D65809-EE17-4D8C-AE70-DDB0C483395E}">
   <dimension ref="A1:O91"/>
   <sheetViews>
@@ -19317,24 +19993,24 @@
       <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="9" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" customWidth="1"/>
-    <col min="4" max="4" width="91.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="255.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>730</v>
       </c>
@@ -19381,7 +20057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>732</v>
       </c>
@@ -19416,7 +20092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>732</v>
       </c>
@@ -19445,7 +20121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>732</v>
       </c>
@@ -19474,7 +20150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>732</v>
       </c>
@@ -19506,7 +20182,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>732</v>
       </c>
@@ -19538,7 +20214,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>732</v>
       </c>
@@ -19570,7 +20246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>732</v>
       </c>
@@ -19605,7 +20281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>732</v>
       </c>
@@ -19637,7 +20313,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>732</v>
       </c>
@@ -19675,7 +20351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>732</v>
       </c>
@@ -19710,7 +20386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>732</v>
       </c>
@@ -19739,7 +20415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>732</v>
       </c>
@@ -19768,7 +20444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>732</v>
       </c>
@@ -19797,7 +20473,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>732</v>
       </c>
@@ -19832,7 +20508,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>732</v>
       </c>
@@ -19864,7 +20540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>732</v>
       </c>
@@ -19902,7 +20578,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>732</v>
       </c>
@@ -19943,7 +20619,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>732</v>
       </c>
@@ -19978,7 +20654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>732</v>
       </c>
@@ -20016,7 +20692,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>732</v>
       </c>
@@ -20060,7 +20736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>732</v>
       </c>
@@ -20104,7 +20780,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>732</v>
       </c>
@@ -20145,7 +20821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>732</v>
       </c>
@@ -20186,7 +20862,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>732</v>
       </c>
@@ -20227,7 +20903,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>732</v>
       </c>
@@ -20262,7 +20938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>732</v>
       </c>
@@ -20297,7 +20973,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>732</v>
       </c>
@@ -20332,7 +21008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>732</v>
       </c>
@@ -20367,7 +21043,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>732</v>
       </c>
@@ -20396,7 +21072,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>732</v>
       </c>
@@ -20428,7 +21104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>746</v>
       </c>
@@ -20463,7 +21139,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>746</v>
       </c>
@@ -20498,7 +21174,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>746</v>
       </c>
@@ -20533,7 +21209,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>746</v>
       </c>
@@ -20571,7 +21247,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>746</v>
       </c>
@@ -20609,7 +21285,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>746</v>
       </c>
@@ -20641,7 +21317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>746</v>
       </c>
@@ -20676,7 +21352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>746</v>
       </c>
@@ -20708,7 +21384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>746</v>
       </c>
@@ -20743,7 +21419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>746</v>
       </c>
@@ -20781,7 +21457,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>746</v>
       </c>
@@ -20813,7 +21489,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>746</v>
       </c>
@@ -20845,7 +21521,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>746</v>
       </c>
@@ -20883,7 +21559,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>746</v>
       </c>
@@ -20918,7 +21594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>746</v>
       </c>
@@ -20953,7 +21629,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>746</v>
       </c>
@@ -20991,7 +21667,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>746</v>
       </c>
@@ -21026,7 +21702,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>746</v>
       </c>
@@ -21061,7 +21737,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>746</v>
       </c>
@@ -21099,7 +21775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>746</v>
       </c>
@@ -21134,7 +21810,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>746</v>
       </c>
@@ -21172,7 +21848,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>746</v>
       </c>
@@ -21201,7 +21877,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>746</v>
       </c>
@@ -21236,7 +21912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>746</v>
       </c>
@@ -21268,7 +21944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>746</v>
       </c>
@@ -21306,7 +21982,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>746</v>
       </c>
@@ -21344,7 +22020,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>746</v>
       </c>
@@ -21382,7 +22058,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>746</v>
       </c>
@@ -21420,7 +22096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>746</v>
       </c>
@@ -21455,7 +22131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>746</v>
       </c>
@@ -21493,7 +22169,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>746</v>
       </c>
@@ -21531,7 +22207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>746</v>
       </c>
@@ -21566,7 +22242,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>746</v>
       </c>
@@ -21604,7 +22280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>746</v>
       </c>
@@ -21636,7 +22312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>746</v>
       </c>
@@ -21668,7 +22344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>746</v>
       </c>
@@ -21703,7 +22379,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>746</v>
       </c>
@@ -21741,7 +22417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>746</v>
       </c>
@@ -21776,7 +22452,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>746</v>
       </c>
@@ -21811,7 +22487,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>746</v>
       </c>
@@ -21849,7 +22525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>746</v>
       </c>
@@ -21884,7 +22560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>746</v>
       </c>
@@ -21919,7 +22595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>746</v>
       </c>
@@ -21951,7 +22627,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>746</v>
       </c>
@@ -21986,7 +22662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>746</v>
       </c>
@@ -22021,7 +22697,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>746</v>
       </c>
@@ -22053,7 +22729,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>746</v>
       </c>
@@ -22088,7 +22764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>746</v>
       </c>
@@ -22117,7 +22793,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>746</v>
       </c>
@@ -22149,7 +22825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>746</v>
       </c>
@@ -22181,7 +22857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>746</v>
       </c>
@@ -22213,7 +22889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>746</v>
       </c>
@@ -22242,7 +22918,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>746</v>
       </c>
@@ -22274,7 +22950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>746</v>
       </c>
@@ -22306,7 +22982,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>746</v>
       </c>
@@ -22335,7 +23011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>746</v>
       </c>
@@ -22361,7 +23037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>746</v>
       </c>
@@ -22387,7 +23063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>746</v>
       </c>
@@ -22413,7 +23089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>746</v>
       </c>
@@ -22442,7 +23118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>746</v>
       </c>
@@ -22482,7 +23158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1775EF8F-7578-4663-BD36-E58C953FE289}">
   <dimension ref="A3:B6"/>
   <sheetViews>
@@ -22490,13 +23166,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>761</v>
       </c>
@@ -22504,7 +23180,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>732</v>
       </c>
@@ -22512,7 +23188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>746</v>
       </c>
@@ -22520,7 +23196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>763</v>
       </c>
@@ -22533,230 +23209,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF90C9-2890-4DC2-9B4C-67721096CB1B}">
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43675</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43677</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43677</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43675</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43676</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43678</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>43679</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43679</v>
       </c>

--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E0AE0-7421-4F2C-8D42-302CACEBA9AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED5B09C-A4B8-4CDD-8086-26A839371240}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="792">
   <si>
     <t>DATE</t>
   </si>
@@ -2989,6 +2989,9 @@
   </si>
   <si>
     <t>FACTCHECK_FACTSFIRST</t>
+  </si>
+  <si>
+    <t>Taking away guns</t>
   </si>
 </sst>
 </file>
@@ -18803,8 +18806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C93A2E-C59F-4009-B404-92A58D2E1097}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19230,6 +19233,9 @@
       </c>
       <c r="E11" t="s">
         <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>791</v>
       </c>
       <c r="G11" t="s">
         <v>271</v>

--- a/TRUMP FACT-CHECKS.xlsx
+++ b/TRUMP FACT-CHECKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kessler\GitHub_Kessler\cnn_trump_factcheck_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED5B09C-A4B8-4CDD-8086-26A839371240}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA109DDD-4931-4D8A-8D12-F07B5707F2C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4987" uniqueCount="791">
   <si>
     <t>DATE</t>
   </si>
@@ -2899,9 +2899,6 @@
   </si>
   <si>
     <t>FACTCHECK_MORETEXT</t>
-  </si>
-  <si>
-    <t>Some Democrats, including presidential candidates such as Elizabeth Warren and Julián Castro, have advocated a significant loosening of immigration law, including a decriminalization of the act of illegally crossing the border. But none of them have proposed literally opening the border to unrestricted migration.</t>
   </si>
   <si>
     <t xml:space="preserve">There were empty seats at this very rally. </t>
@@ -18804,10 +18801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C93A2E-C59F-4009-B404-92A58D2E1097}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18849,7 +18846,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I1" t="s">
         <v>765</v>
@@ -18873,7 +18870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43663</v>
       </c>
@@ -18890,22 +18887,25 @@
         <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
         <v>766</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>778</v>
+      </c>
       <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43663</v>
       </c>
@@ -18922,10 +18922,10 @@
         <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
         <v>767</v>
@@ -18934,13 +18934,16 @@
         <v>779</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
       </c>
       <c r="O3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43663</v>
       </c>
@@ -18957,28 +18960,28 @@
         <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" t="s">
         <v>768</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
         <v>65</v>
       </c>
+      <c r="L4" t="s">
+        <v>234</v>
+      </c>
       <c r="O4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43663</v>
       </c>
@@ -18995,28 +18998,31 @@
         <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H5" t="s">
         <v>769</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>780</v>
+      </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="L5" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43663</v>
       </c>
@@ -19033,10 +19039,10 @@
         <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H6" t="s">
         <v>770</v>
@@ -19048,16 +19054,19 @@
         <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>263</v>
       </c>
       <c r="O6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43663</v>
       </c>
@@ -19074,10 +19083,10 @@
         <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H7" t="s">
         <v>771</v>
@@ -19086,22 +19095,16 @@
         <v>782</v>
       </c>
       <c r="J7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" t="s">
         <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>263</v>
       </c>
       <c r="O7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43663</v>
       </c>
@@ -19118,10 +19121,10 @@
         <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H8" t="s">
         <v>772</v>
@@ -19133,6 +19136,9 @@
         <v>193</v>
       </c>
       <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
         <v>66</v>
       </c>
       <c r="O8" t="s">
@@ -19156,10 +19162,10 @@
         <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
         <v>773</v>
@@ -19168,19 +19174,16 @@
         <v>784</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>
       </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
       <c r="O9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43663</v>
       </c>
@@ -19197,10 +19200,10 @@
         <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>790</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" t="s">
         <v>774</v>
@@ -19209,16 +19212,19 @@
         <v>785</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>273</v>
       </c>
       <c r="O10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43663</v>
       </c>
@@ -19235,10 +19241,10 @@
         <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>791</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
         <v>775</v>
@@ -19247,19 +19253,19 @@
         <v>786</v>
       </c>
       <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
       <c r="L11" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43663</v>
       </c>
@@ -19276,10 +19282,10 @@
         <v>175</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H12" t="s">
         <v>776</v>
@@ -19288,19 +19294,16 @@
         <v>787</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43663</v>
       </c>
@@ -19317,10 +19320,10 @@
         <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H13" t="s">
         <v>777</v>
@@ -19332,50 +19335,12 @@
         <v>27</v>
       </c>
       <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" t="s">
         <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43663</v>
-      </c>
-      <c r="B14" t="s">
-        <v>764</v>
-      </c>
-      <c r="C14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" t="s">
-        <v>778</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" t="s">
         <v>250</v>
       </c>
     </row>
